--- a/data/trans_orig/P6906-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6906-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{57B50E7E-5881-45FA-8D3A-EF1F84F75542}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D27869F7-3979-4B7E-8C92-11AC57096731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{8BDAE140-6222-4424-83A9-C5B1F99E2D8A}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{42951F74-21F4-46D2-9F90-DC9F65984C04}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="426">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>32,76%</t>
+    <t>26,21%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>4,5%</t>
   </si>
   <si>
-    <t>25,2%</t>
+    <t>26,55%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>93,7%</t>
   </si>
   <si>
-    <t>67,24%</t>
+    <t>73,79%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,7 +116,7 @@
     <t>95,5%</t>
   </si>
   <si>
-    <t>74,8%</t>
+    <t>73,45%</t>
   </si>
   <si>
     <t>2/10</t>
@@ -125,55 +125,55 @@
     <t>17,49%</t>
   </si>
   <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
+    <t>9,11%</t>
+  </si>
+  <si>
+    <t>29,57%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>43,33%</t>
   </si>
   <si>
     <t>18,69%</t>
   </si>
   <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>28,26%</t>
   </si>
   <si>
     <t>82,51%</t>
   </si>
   <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
+    <t>70,43%</t>
+  </si>
+  <si>
+    <t>90,89%</t>
   </si>
   <si>
     <t>78,39%</t>
   </si>
   <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
+    <t>56,67%</t>
+  </si>
+  <si>
+    <t>92,34%</t>
   </si>
   <si>
     <t>81,31%</t>
   </si>
   <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
+    <t>71,74%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -182,55 +182,55 @@
     <t>22,31%</t>
   </si>
   <si>
-    <t>16,32%</t>
-  </si>
-  <si>
-    <t>30,81%</t>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>29,82%</t>
   </si>
   <si>
     <t>16,01%</t>
   </si>
   <si>
-    <t>7,92%</t>
-  </si>
-  <si>
-    <t>27,57%</t>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>29,08%</t>
   </si>
   <si>
     <t>20,63%</t>
   </si>
   <si>
-    <t>14,65%</t>
-  </si>
-  <si>
-    <t>26,91%</t>
+    <t>15,11%</t>
+  </si>
+  <si>
+    <t>26,97%</t>
   </si>
   <si>
     <t>77,69%</t>
   </si>
   <si>
-    <t>69,19%</t>
-  </si>
-  <si>
-    <t>83,68%</t>
+    <t>70,18%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
   </si>
   <si>
     <t>83,99%</t>
   </si>
   <si>
-    <t>72,43%</t>
-  </si>
-  <si>
-    <t>92,08%</t>
+    <t>70,92%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
   </si>
   <si>
     <t>79,37%</t>
   </si>
   <si>
-    <t>73,09%</t>
-  </si>
-  <si>
-    <t>85,35%</t>
+    <t>73,03%</t>
+  </si>
+  <si>
+    <t>84,89%</t>
   </si>
   <si>
     <t>mas de 50</t>
@@ -239,55 +239,55 @@
     <t>20,26%</t>
   </si>
   <si>
-    <t>12,34%</t>
-  </si>
-  <si>
-    <t>29,29%</t>
+    <t>13,14%</t>
+  </si>
+  <si>
+    <t>29,47%</t>
   </si>
   <si>
     <t>27,55%</t>
   </si>
   <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>41,89%</t>
+    <t>15,63%</t>
+  </si>
+  <si>
+    <t>41,22%</t>
   </si>
   <si>
     <t>22,43%</t>
   </si>
   <si>
-    <t>15,88%</t>
-  </si>
-  <si>
-    <t>29,89%</t>
+    <t>15,83%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
   </si>
   <si>
     <t>79,74%</t>
   </si>
   <si>
-    <t>70,71%</t>
-  </si>
-  <si>
-    <t>87,66%</t>
+    <t>70,53%</t>
+  </si>
+  <si>
+    <t>86,86%</t>
   </si>
   <si>
     <t>72,45%</t>
   </si>
   <si>
-    <t>58,11%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
+    <t>58,78%</t>
+  </si>
+  <si>
+    <t>84,37%</t>
   </si>
   <si>
     <t>77,57%</t>
   </si>
   <si>
-    <t>70,11%</t>
-  </si>
-  <si>
-    <t>84,12%</t>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>84,17%</t>
   </si>
   <si>
     <t>Capitales</t>
@@ -296,712 +296,724 @@
     <t>28,93%</t>
   </si>
   <si>
-    <t>21,91%</t>
-  </si>
-  <si>
-    <t>37,82%</t>
+    <t>21,58%</t>
+  </si>
+  <si>
+    <t>37,14%</t>
   </si>
   <si>
     <t>23,39%</t>
   </si>
   <si>
-    <t>15,13%</t>
+    <t>15,18%</t>
+  </si>
+  <si>
+    <t>33,08%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>21,11%</t>
+  </si>
+  <si>
+    <t>32,9%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>62,86%</t>
+  </si>
+  <si>
+    <t>78,42%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>66,92%</t>
+  </si>
+  <si>
+    <t>84,82%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>67,1%</t>
+  </si>
+  <si>
+    <t>78,89%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>19,12%</t>
+  </si>
+  <si>
+    <t>26,92%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,45%</t>
+  </si>
+  <si>
+    <t>28,01%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,09%</t>
+  </si>
+  <si>
+    <t>25,59%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,08%</t>
+  </si>
+  <si>
+    <t>80,88%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>71,99%</t>
+  </si>
+  <si>
+    <t>83,55%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>74,41%</t>
+  </si>
+  <si>
+    <t>80,91%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>9,97%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>10,3%</t>
+  </si>
+  <si>
+    <t>40,42%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>90,03%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>59,58%</t>
+  </si>
+  <si>
+    <t>89,7%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>27,33%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>20,97%</t>
+  </si>
+  <si>
+    <t>57,88%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>15,27%</t>
+  </si>
+  <si>
+    <t>33,78%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>72,67%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>42,12%</t>
+  </si>
+  <si>
+    <t>79,03%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>66,22%</t>
+  </si>
+  <si>
+    <t>84,73%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>15,86%</t>
+  </si>
+  <si>
+    <t>33,8%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>49,19%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>20,34%</t>
+  </si>
+  <si>
+    <t>36,79%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>66,2%</t>
+  </si>
+  <si>
+    <t>84,14%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>50,81%</t>
+  </si>
+  <si>
+    <t>77,14%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>63,21%</t>
+  </si>
+  <si>
+    <t>79,66%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>25,75%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>11,45%</t>
+  </si>
+  <si>
+    <t>33,22%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>74,25%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>66,78%</t>
+  </si>
+  <si>
+    <t>88,55%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>15,79%</t>
+  </si>
+  <si>
+    <t>36,23%</t>
+  </si>
+  <si>
+    <t>19,87%</t>
+  </si>
+  <si>
+    <t>43,52%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>20,23%</t>
+  </si>
+  <si>
+    <t>35,02%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>63,77%</t>
+  </si>
+  <si>
+    <t>84,21%</t>
+  </si>
+  <si>
+    <t>56,48%</t>
+  </si>
+  <si>
+    <t>80,13%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>64,98%</t>
+  </si>
+  <si>
+    <t>79,77%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>21,81%</t>
+  </si>
+  <si>
+    <t>31,11%</t>
+  </si>
+  <si>
+    <t>23,28%</t>
+  </si>
+  <si>
+    <t>36,47%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,21%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>68,89%</t>
+  </si>
+  <si>
+    <t>78,19%</t>
+  </si>
+  <si>
+    <t>63,53%</t>
+  </si>
+  <si>
+    <t>76,72%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>76,79%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2015 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>62,08%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>60,0%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>37,92%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>40,0%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>11,61%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>10,89%</t>
+  </si>
+  <si>
+    <t>47,26%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>14,46%</t>
+  </si>
+  <si>
+    <t>36,88%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>88,39%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>52,74%</t>
+  </si>
+  <si>
+    <t>89,11%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>63,12%</t>
+  </si>
+  <si>
+    <t>85,54%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>28,11%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>22,27%</t>
+  </si>
+  <si>
+    <t>48,34%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>15,98%</t>
+  </si>
+  <si>
+    <t>31,7%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>71,89%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>51,66%</t>
+  </si>
+  <si>
+    <t>77,73%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>68,3%</t>
+  </si>
+  <si>
+    <t>84,02%</t>
+  </si>
+  <si>
+    <t>17,95%</t>
+  </si>
+  <si>
+    <t>36,46%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>17,73%</t>
+  </si>
+  <si>
+    <t>39,28%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>20,47%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>63,54%</t>
+  </si>
+  <si>
+    <t>82,05%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>60,72%</t>
+  </si>
+  <si>
+    <t>82,27%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>79,53%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>19,66%</t>
+  </si>
+  <si>
+    <t>40,06%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>26,17%</t>
+  </si>
+  <si>
+    <t>50,35%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>24,87%</t>
+  </si>
+  <si>
+    <t>40,77%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>59,94%</t>
+  </si>
+  <si>
+    <t>80,34%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>49,65%</t>
+  </si>
+  <si>
+    <t>73,83%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>59,23%</t>
+  </si>
+  <si>
+    <t>75,13%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>29,36%</t>
   </si>
   <si>
     <t>32,64%</t>
   </si>
   <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>62,18%</t>
-  </si>
-  <si>
-    <t>78,09%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
+    <t>39,6%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>31,61%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>70,64%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
   </si>
   <si>
     <t>67,36%</t>
   </si>
   <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>78,82%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>18,68%</t>
-  </si>
-  <si>
-    <t>26,81%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,67%</t>
-  </si>
-  <si>
-    <t>27,71%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,21%</t>
-  </si>
-  <si>
-    <t>25,93%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,19%</t>
-  </si>
-  <si>
-    <t>81,32%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>72,29%</t>
-  </si>
-  <si>
-    <t>83,33%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>74,07%</t>
-  </si>
-  <si>
-    <t>80,79%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
+    <t>60,4%</t>
   </si>
   <si>
     <t>72,76%</t>
   </si>
   <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
+    <t>68,39%</t>
   </si>
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
@@ -1010,319 +1022,301 @@
     <t>5,87%</t>
   </si>
   <si>
-    <t>28,4%</t>
+    <t>35,31%</t>
   </si>
   <si>
     <t>18,95%</t>
   </si>
   <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
   </si>
   <si>
     <t>11,66%</t>
   </si>
   <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
   </si>
   <si>
     <t>94,13%</t>
   </si>
   <si>
-    <t>71,6%</t>
+    <t>64,69%</t>
   </si>
   <si>
     <t>81,05%</t>
   </si>
   <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
   </si>
   <si>
     <t>88,34%</t>
   </si>
   <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
   </si>
   <si>
     <t>22,16%</t>
   </si>
   <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
   </si>
   <si>
     <t>23,56%</t>
   </si>
   <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
   </si>
   <si>
     <t>22,78%</t>
   </si>
   <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
   </si>
   <si>
     <t>77,84%</t>
   </si>
   <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
   </si>
   <si>
     <t>76,44%</t>
   </si>
   <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
   </si>
   <si>
     <t>77,22%</t>
   </si>
   <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
   </si>
   <si>
     <t>16,51%</t>
   </si>
   <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
   </si>
   <si>
     <t>26,63%</t>
   </si>
   <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
   </si>
   <si>
     <t>21,41%</t>
   </si>
   <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
   </si>
   <si>
     <t>83,49%</t>
   </si>
   <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
   </si>
   <si>
     <t>73,37%</t>
   </si>
   <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
   </si>
   <si>
     <t>78,59%</t>
   </si>
   <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
   </si>
   <si>
     <t>16,33%</t>
   </si>
   <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
+    <t>29,28%</t>
   </si>
   <si>
     <t>24,88%</t>
   </si>
   <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
+    <t>35,65%</t>
   </si>
   <si>
     <t>21,28%</t>
   </si>
   <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
   </si>
   <si>
     <t>83,67%</t>
   </si>
   <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
+    <t>70,72%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
+    <t>64,35%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
   </si>
   <si>
     <t>21,87%</t>
   </si>
   <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
   </si>
   <si>
     <t>29,81%</t>
   </si>
   <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
   </si>
   <si>
     <t>26,0%</t>
   </si>
   <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
+    <t>32,35%</t>
   </si>
   <si>
     <t>78,13%</t>
   </si>
   <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
   </si>
   <si>
     <t>70,19%</t>
   </si>
   <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
   </si>
   <si>
     <t>74,0%</t>
   </si>
   <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
+    <t>67,65%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
+    <t>14,42%</t>
+  </si>
+  <si>
+    <t>23,66%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>31,26%</t>
   </si>
   <si>
     <t>22,64%</t>
   </si>
   <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
+    <t>19,62%</t>
+  </si>
+  <si>
+    <t>25,95%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
+    <t>76,34%</t>
+  </si>
+  <si>
+    <t>85,58%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
+    <t>68,74%</t>
+  </si>
+  <si>
+    <t>77,56%</t>
   </si>
   <si>
     <t>77,36%</t>
   </si>
   <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
+    <t>74,05%</t>
+  </si>
+  <si>
+    <t>80,38%</t>
   </si>
 </sst>
 </file>
@@ -1734,7 +1728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AECBB368-30F3-4DFC-99F7-EB6883A0B184}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF15678-BA6E-4AFB-9E6F-1D4792BFCAB5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2797,7 +2791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{713797B3-B424-4027-93E9-3D68D7C90217}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE2D03B-2446-4FEA-A8E4-918DBDAFEFA6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3711,13 +3705,13 @@
         <v>63492</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>73</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -3726,10 +3720,10 @@
         <v>148212</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>215</v>
@@ -3762,13 +3756,13 @@
         <v>151343</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>219</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>370</v>
@@ -3777,13 +3771,13 @@
         <v>392848</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>222</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3860,7 +3854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6DECC55-F801-4CF6-B1B1-D4F2EE28B6F4}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE906902-BBBA-4A3A-A629-BDCE89D5DF64}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4467,10 +4461,10 @@
         <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>138</v>
+        <v>280</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -4479,13 +4473,13 @@
         <v>46106</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>283</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4503,10 +4497,10 @@
         <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -4515,13 +4509,13 @@
         <v>47189</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>124</v>
@@ -4530,13 +4524,13 @@
         <v>128576</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,13 +4598,13 @@
         <v>25652</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>142</v>
+        <v>294</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -4619,13 +4613,13 @@
         <v>24985</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>298</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -4634,13 +4628,13 @@
         <v>50637</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>299</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,13 +4649,13 @@
         <v>62758</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>152</v>
+        <v>304</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -4670,13 +4664,13 @@
         <v>41098</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>307</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
@@ -4685,13 +4679,13 @@
         <v>103856</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>308</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>303</v>
+        <v>309</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>304</v>
+        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4759,13 +4753,13 @@
         <v>83635</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>305</v>
+        <v>311</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -4774,13 +4768,13 @@
         <v>70601</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>89</v>
+        <v>314</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>308</v>
+        <v>13</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -4789,13 +4783,13 @@
         <v>154237</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>311</v>
+        <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>312</v>
+        <v>317</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4810,13 +4804,13 @@
         <v>266366</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>313</v>
+        <v>318</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>314</v>
+        <v>319</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>315</v>
+        <v>320</v>
       </c>
       <c r="H20" s="7">
         <v>140</v>
@@ -4825,13 +4819,13 @@
         <v>145697</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>97</v>
+        <v>321</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>20</v>
       </c>
       <c r="M20" s="7">
         <v>390</v>
@@ -4840,13 +4834,13 @@
         <v>412062</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>318</v>
+        <v>323</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>320</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4923,7 +4917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE7CB9D-0613-430D-8751-405B917D40B3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD3C8B0-3077-4C35-A666-A01CFC145A5C}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4940,7 +4934,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5047,13 +5041,13 @@
         <v>835</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5062,13 +5056,13 @@
         <v>2140</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5077,13 +5071,13 @@
         <v>2974</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,10 +5092,10 @@
         <v>13378</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5113,13 +5107,13 @@
         <v>9151</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -5128,13 +5122,13 @@
         <v>22529</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,13 +5196,13 @@
         <v>13366</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -5217,13 +5211,13 @@
         <v>11308</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -5232,13 +5226,13 @@
         <v>24674</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,13 +5247,13 @@
         <v>46946</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -5268,13 +5262,13 @@
         <v>36686</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="M8" s="7">
         <v>101</v>
@@ -5283,13 +5277,13 @@
         <v>83632</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,13 +5351,13 @@
         <v>19227</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -5372,13 +5366,13 @@
         <v>29089</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -5387,13 +5381,13 @@
         <v>48316</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,13 +5402,13 @@
         <v>97223</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>108</v>
@@ -5423,13 +5417,13 @@
         <v>80143</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="M11" s="7">
         <v>200</v>
@@ -5438,13 +5432,13 @@
         <v>177366</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,13 +5506,13 @@
         <v>9479</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>31</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5527,13 +5521,13 @@
         <v>19853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>236</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -5542,13 +5536,13 @@
         <v>29332</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,13 +5557,13 @@
         <v>48558</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>41</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -5578,13 +5572,13 @@
         <v>59925</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>229</v>
       </c>
       <c r="M14" s="7">
         <v>112</v>
@@ -5700,10 +5694,10 @@
         <v>398</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,13 +5712,13 @@
         <v>81264</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>401</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>102</v>
@@ -5733,13 +5727,13 @@
         <v>79255</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>404</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>405</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>181</v>
@@ -5748,13 +5742,13 @@
         <v>160518</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>406</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>407</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>408</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5822,13 +5816,13 @@
         <v>65648</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>409</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>410</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>133</v>
@@ -5837,13 +5831,13 @@
         <v>96051</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>411</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>412</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>194</v>
@@ -5852,13 +5846,13 @@
         <v>161699</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>414</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>415</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>416</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5873,13 +5867,13 @@
         <v>287370</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>417</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>418</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>419</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>341</v>
@@ -5888,13 +5882,13 @@
         <v>265160</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>420</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>421</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>422</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>618</v>
@@ -5903,13 +5897,13 @@
         <v>552529</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>423</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>425</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6906-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6906-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D27869F7-3979-4B7E-8C92-11AC57096731}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16CEB619-1B3E-4FE3-AC55-D36F221996CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{42951F74-21F4-46D2-9F90-DC9F65984C04}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B6E7990-77A5-43E3-8BD3-C6C4E0F04847}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>26,21%</t>
+    <t>26,2%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,7 +92,7 @@
     <t>4,5%</t>
   </si>
   <si>
-    <t>26,55%</t>
+    <t>24,88%</t>
   </si>
   <si>
     <t>No</t>
@@ -101,7 +101,7 @@
     <t>93,7%</t>
   </si>
   <si>
-    <t>73,79%</t>
+    <t>73,8%</t>
   </si>
   <si>
     <t>100,0%</t>
@@ -116,1153 +116,1153 @@
     <t>95,5%</t>
   </si>
   <si>
-    <t>73,45%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>75,12%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>17,49%</t>
   </si>
   <si>
-    <t>9,11%</t>
-  </si>
-  <si>
-    <t>29,57%</t>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>29,76%</t>
   </si>
   <si>
     <t>21,61%</t>
   </si>
   <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>43,89%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>10,88%</t>
+  </si>
+  <si>
+    <t>28,45%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>70,24%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>56,11%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>71,55%</t>
+  </si>
+  <si>
+    <t>89,12%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>30,53%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>29,88%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>15,01%</t>
+  </si>
+  <si>
+    <t>27,2%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>69,47%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>70,12%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>72,8%</t>
+  </si>
+  <si>
+    <t>84,99%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>13,31%</t>
+  </si>
+  <si>
+    <t>30,43%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>15,21%</t>
+  </si>
+  <si>
+    <t>42,16%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>15,61%</t>
+  </si>
+  <si>
+    <t>29,85%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>69,57%</t>
+  </si>
+  <si>
+    <t>86,69%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>57,84%</t>
+  </si>
+  <si>
+    <t>84,79%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>70,15%</t>
+  </si>
+  <si>
+    <t>84,39%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>20,92%</t>
+  </si>
+  <si>
+    <t>36,17%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>33,13%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>33,21%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>63,83%</t>
+  </si>
+  <si>
+    <t>79,08%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>66,87%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>66,79%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,76%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,22%</t>
+  </si>
+  <si>
+    <t>28,2%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,18%</t>
+  </si>
+  <si>
+    <t>25,39%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>81,24%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>71,8%</t>
+  </si>
+  <si>
+    <t>83,78%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>74,61%</t>
+  </si>
+  <si>
+    <t>80,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>43,22%</t>
+  </si>
+  <si>
+    <t>67,26%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>8,61%</t>
+  </si>
+  <si>
+    <t>38,19%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>56,78%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>32,74%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>61,81%</t>
+  </si>
+  <si>
+    <t>91,39%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>27,63%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>20,15%</t>
+  </si>
+  <si>
+    <t>57,54%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>14,89%</t>
+  </si>
+  <si>
+    <t>33,98%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>72,37%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>42,46%</t>
+  </si>
+  <si>
+    <t>79,85%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>66,02%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>16,38%</t>
+  </si>
+  <si>
+    <t>34,02%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>23,23%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>20,95%</t>
+  </si>
+  <si>
+    <t>36,04%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>65,98%</t>
+  </si>
+  <si>
+    <t>83,62%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>76,77%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>63,96%</t>
+  </si>
+  <si>
+    <t>79,05%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>25,89%</t>
+  </si>
+  <si>
+    <t>48,76%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>11,28%</t>
+  </si>
+  <si>
+    <t>34,36%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>22,06%</t>
+  </si>
+  <si>
+    <t>39,78%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>51,24%</t>
+  </si>
+  <si>
+    <t>74,11%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>65,64%</t>
+  </si>
+  <si>
+    <t>88,72%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>60,22%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>35,61%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>43,95%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>20,6%</t>
+  </si>
+  <si>
+    <t>35,98%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>64,39%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>56,05%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>64,02%</t>
+  </si>
+  <si>
+    <t>79,4%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>21,22%</t>
+  </si>
+  <si>
+    <t>31,25%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>23,37%</t>
+  </si>
+  <si>
+    <t>36,19%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>23,75%</t>
+  </si>
+  <si>
+    <t>31,47%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>68,75%</t>
+  </si>
+  <si>
+    <t>78,78%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>63,81%</t>
+  </si>
+  <si>
+    <t>76,63%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>68,53%</t>
+  </si>
+  <si>
+    <t>76,25%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>61,88%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>86,47%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>12,95%</t>
+  </si>
+  <si>
+    <t>60,7%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>38,12%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>13,53%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>39,3%</t>
+  </si>
+  <si>
+    <t>87,05%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>39,44%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>9,84%</t>
+  </si>
+  <si>
+    <t>48,13%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>14,35%</t>
+  </si>
+  <si>
+    <t>36,61%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>60,56%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>51,87%</t>
+  </si>
+  <si>
+    <t>90,16%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>63,39%</t>
+  </si>
+  <si>
+    <t>85,65%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>28,27%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>22,84%</t>
+  </si>
+  <si>
+    <t>47,8%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>31,59%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>71,73%</t>
+  </si>
+  <si>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>52,2%</t>
+  </si>
+  <si>
+    <t>77,16%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>68,41%</t>
+  </si>
+  <si>
+    <t>17,39%</t>
+  </si>
+  <si>
+    <t>35,05%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>16,72%</t>
+  </si>
+  <si>
+    <t>38,58%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>19,02%</t>
+  </si>
+  <si>
+    <t>32,89%</t>
+  </si>
+  <si>
+    <t>64,95%</t>
+  </si>
+  <si>
+    <t>82,61%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>61,42%</t>
+  </si>
+  <si>
+    <t>83,28%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>67,11%</t>
+  </si>
+  <si>
+    <t>80,98%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>18,57%</t>
+  </si>
+  <si>
+    <t>38,7%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>25,91%</t>
+  </si>
+  <si>
+    <t>52,32%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>40,75%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>61,3%</t>
+  </si>
+  <si>
+    <t>81,43%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>47,68%</t>
+  </si>
+  <si>
+    <t>74,09%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>59,25%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>29,16%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,49%</t>
+  </si>
+  <si>
+    <t>39,58%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,53%</t>
+  </si>
+  <si>
+    <t>31,19%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>70,84%</t>
+  </si>
+  <si>
+    <t>80,76%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>60,42%</t>
+  </si>
+  <si>
+    <t>73,51%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>68,81%</t>
+  </si>
+  <si>
+    <t>76,47%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>35,31%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>4,76%</t>
+  </si>
+  <si>
+    <t>43,9%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>3,8%</t>
+  </si>
+  <si>
+    <t>25,31%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>64,69%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>56,1%</t>
+  </si>
+  <si>
+    <t>95,24%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>74,69%</t>
+  </si>
+  <si>
+    <t>96,2%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>39,24%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>14,85%</t>
+  </si>
+  <si>
+    <t>35,81%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>14,99%</t>
+  </si>
+  <si>
+    <t>33,47%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>60,76%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>64,19%</t>
+  </si>
+  <si>
+    <t>85,15%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>66,53%</t>
+  </si>
+  <si>
+    <t>85,01%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>19,64%</t>
+  </si>
+  <si>
+    <t>34,06%</t>
+  </si>
+  <si>
+    <t>16,31%</t>
+  </si>
+  <si>
+    <t>27,74%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>65,94%</t>
+  </si>
+  <si>
+    <t>80,36%</t>
+  </si>
+  <si>
+    <t>72,26%</t>
+  </si>
+  <si>
+    <t>83,69%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
     <t>7,66%</t>
   </si>
   <si>
-    <t>43,33%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>28,26%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>70,43%</t>
-  </si>
-  <si>
-    <t>90,89%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>56,67%</t>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>14,0%</t>
+  </si>
+  <si>
+    <t>28,65%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
   </si>
   <si>
     <t>92,34%</t>
   </si>
   <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>71,74%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>29,82%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>29,08%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>15,11%</t>
-  </si>
-  <si>
-    <t>26,97%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>70,18%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>70,92%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>73,03%</t>
-  </si>
-  <si>
-    <t>84,89%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>13,14%</t>
-  </si>
-  <si>
-    <t>29,47%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>15,63%</t>
-  </si>
-  <si>
-    <t>41,22%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>15,83%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>70,53%</t>
-  </si>
-  <si>
-    <t>86,86%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>58,78%</t>
-  </si>
-  <si>
-    <t>84,37%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>84,17%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>21,58%</t>
-  </si>
-  <si>
-    <t>37,14%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>15,18%</t>
-  </si>
-  <si>
-    <t>33,08%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>21,11%</t>
-  </si>
-  <si>
-    <t>32,9%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>62,86%</t>
-  </si>
-  <si>
-    <t>78,42%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>66,92%</t>
-  </si>
-  <si>
-    <t>84,82%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>67,1%</t>
-  </si>
-  <si>
-    <t>78,89%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>19,12%</t>
-  </si>
-  <si>
-    <t>26,92%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,45%</t>
-  </si>
-  <si>
-    <t>28,01%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,09%</t>
-  </si>
-  <si>
-    <t>25,59%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,08%</t>
-  </si>
-  <si>
-    <t>80,88%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>71,99%</t>
-  </si>
-  <si>
-    <t>83,55%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>74,41%</t>
-  </si>
-  <si>
-    <t>80,91%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>9,97%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>67,54%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>10,3%</t>
-  </si>
-  <si>
-    <t>40,42%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>90,03%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>59,58%</t>
-  </si>
-  <si>
-    <t>89,7%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>27,33%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>20,97%</t>
-  </si>
-  <si>
-    <t>57,88%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>15,27%</t>
-  </si>
-  <si>
-    <t>33,78%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>72,67%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>42,12%</t>
-  </si>
-  <si>
-    <t>79,03%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>66,22%</t>
-  </si>
-  <si>
-    <t>84,73%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>15,86%</t>
-  </si>
-  <si>
-    <t>33,8%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>49,19%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>78,72%</t>
+  </si>
+  <si>
+    <t>71,35%</t>
+  </si>
+  <si>
+    <t>86,0%</t>
+  </si>
+  <si>
+    <t>21,87%</t>
+  </si>
+  <si>
+    <t>14,28%</t>
+  </si>
+  <si>
+    <t>31,79%</t>
+  </si>
+  <si>
+    <t>29,81%</t>
+  </si>
+  <si>
+    <t>22,2%</t>
+  </si>
+  <si>
+    <t>38,3%</t>
+  </si>
+  <si>
+    <t>26,0%</t>
   </si>
   <si>
     <t>20,34%</t>
   </si>
   <si>
-    <t>36,79%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>66,2%</t>
-  </si>
-  <si>
-    <t>84,14%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>50,81%</t>
-  </si>
-  <si>
-    <t>77,14%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>63,21%</t>
+    <t>32,35%</t>
+  </si>
+  <si>
+    <t>78,13%</t>
+  </si>
+  <si>
+    <t>68,21%</t>
+  </si>
+  <si>
+    <t>85,72%</t>
+  </si>
+  <si>
+    <t>70,19%</t>
+  </si>
+  <si>
+    <t>61,7%</t>
+  </si>
+  <si>
+    <t>77,8%</t>
+  </si>
+  <si>
+    <t>74,0%</t>
+  </si>
+  <si>
+    <t>67,65%</t>
   </si>
   <si>
     <t>79,66%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>25,75%</t>
-  </si>
-  <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>11,45%</t>
-  </si>
-  <si>
-    <t>33,22%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
-  </si>
-  <si>
-    <t>74,25%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>66,78%</t>
-  </si>
-  <si>
-    <t>88,55%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>15,79%</t>
-  </si>
-  <si>
-    <t>36,23%</t>
-  </si>
-  <si>
-    <t>19,87%</t>
-  </si>
-  <si>
-    <t>43,52%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>20,23%</t>
-  </si>
-  <si>
-    <t>35,02%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>63,77%</t>
-  </si>
-  <si>
-    <t>84,21%</t>
-  </si>
-  <si>
-    <t>56,48%</t>
-  </si>
-  <si>
-    <t>80,13%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>64,98%</t>
-  </si>
-  <si>
-    <t>79,77%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>21,81%</t>
-  </si>
-  <si>
-    <t>31,11%</t>
-  </si>
-  <si>
-    <t>23,28%</t>
-  </si>
-  <si>
-    <t>36,47%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,21%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>68,89%</t>
-  </si>
-  <si>
-    <t>78,19%</t>
-  </si>
-  <si>
-    <t>63,53%</t>
-  </si>
-  <si>
-    <t>76,72%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>76,79%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2015 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>62,08%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>60,0%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>37,92%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>40,0%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>11,61%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>10,89%</t>
-  </si>
-  <si>
-    <t>47,26%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>14,46%</t>
-  </si>
-  <si>
-    <t>36,88%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>88,39%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>52,74%</t>
-  </si>
-  <si>
-    <t>89,11%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>63,12%</t>
-  </si>
-  <si>
-    <t>85,54%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>28,11%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>22,27%</t>
-  </si>
-  <si>
-    <t>48,34%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>15,98%</t>
-  </si>
-  <si>
-    <t>31,7%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>71,89%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>51,66%</t>
-  </si>
-  <si>
-    <t>77,73%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>68,3%</t>
-  </si>
-  <si>
-    <t>84,02%</t>
-  </si>
-  <si>
-    <t>17,95%</t>
-  </si>
-  <si>
-    <t>36,46%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>17,73%</t>
-  </si>
-  <si>
-    <t>39,28%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>20,47%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>63,54%</t>
-  </si>
-  <si>
-    <t>82,05%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>60,72%</t>
-  </si>
-  <si>
-    <t>82,27%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>79,53%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>19,66%</t>
-  </si>
-  <si>
-    <t>40,06%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>26,17%</t>
-  </si>
-  <si>
-    <t>50,35%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>24,87%</t>
-  </si>
-  <si>
-    <t>40,77%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>59,94%</t>
-  </si>
-  <si>
-    <t>80,34%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>49,65%</t>
-  </si>
-  <si>
-    <t>73,83%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>59,23%</t>
-  </si>
-  <si>
-    <t>75,13%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>18,87%</t>
-  </si>
-  <si>
-    <t>29,36%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>39,6%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>31,61%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>70,64%</t>
-  </si>
-  <si>
-    <t>81,13%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>60,4%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>68,39%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>67,65%</t>
   </si>
   <si>
     <t>18,6%</t>
@@ -1728,7 +1728,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF15678-BA6E-4AFB-9E6F-1D4792BFCAB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB176603-070E-4904-BD96-9844225A0AAF}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2791,7 +2791,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CE2D03B-2446-4FEA-A8E4-918DBDAFEFA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDBE9EA-E986-4F2C-A1A7-BCAB43B4B809}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2930,13 +2930,13 @@
         <v>1140</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>88</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -2945,13 +2945,13 @@
         <v>6354</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>127</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>128</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2966,13 @@
         <v>16923</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -2981,10 +2981,10 @@
         <v>6214</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2996,13 +2996,13 @@
         <v>23137</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3070,13 @@
         <v>8805</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>138</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>139</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3085,13 +3085,13 @@
         <v>10186</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -3100,13 +3100,13 @@
         <v>18991</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3121,13 @@
         <v>45639</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3136,13 +3136,13 @@
         <v>16721</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>150</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>60</v>
@@ -3151,13 +3151,13 @@
         <v>62360</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>153</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,13 +3225,13 @@
         <v>22260</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>158</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -3240,13 +3240,13 @@
         <v>21932</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -3255,13 +3255,13 @@
         <v>44192</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3276,13 @@
         <v>69546</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>165</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -3291,13 +3291,13 @@
         <v>41566</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M11" s="7">
         <v>104</v>
@@ -3306,13 +3306,13 @@
         <v>111112</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3380,13 @@
         <v>28916</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>173</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3395,13 +3395,13 @@
         <v>10953</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3410,13 +3410,13 @@
         <v>39869</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3431,13 @@
         <v>50641</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>183</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>184</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -3446,13 +3446,13 @@
         <v>42026</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>186</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>187</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>85</v>
@@ -3461,13 +3461,13 @@
         <v>92667</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>187</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3535,13 @@
         <v>19524</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>192</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>194</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -3550,13 +3550,13 @@
         <v>19282</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -3565,13 +3565,13 @@
         <v>38806</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>197</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3586,13 @@
         <v>58757</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>200</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -3601,13 +3601,13 @@
         <v>44814</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
@@ -3616,13 +3616,13 @@
         <v>103572</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3690,13 @@
         <v>84720</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -3705,13 +3705,13 @@
         <v>63492</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>73</v>
+        <v>209</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>212</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -3720,13 +3720,13 @@
         <v>148212</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>213</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3741,13 @@
         <v>241505</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>138</v>
@@ -3756,7 +3756,7 @@
         <v>151343</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>81</v>
+        <v>218</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>219</v>
@@ -3854,7 +3854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DE906902-BBBA-4A3A-A629-BDCE89D5DF64}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2505567E-9DA8-4E8E-BA9A-1E829F85524E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4321,10 +4321,10 @@
         <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4339,13 @@
         <v>80269</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -4354,13 +4354,13 @@
         <v>36404</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>272</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
@@ -4369,13 +4369,13 @@
         <v>116672</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="P11" s="7" t="s">
         <v>274</v>
       </c>
-      <c r="P11" s="7" t="s">
-        <v>275</v>
-      </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4443,13 @@
         <v>28548</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -4458,13 +4458,13 @@
         <v>17558</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>281</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -4473,13 +4473,13 @@
         <v>46106</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>284</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4494,13 +4494,13 @@
         <v>81387</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>47</v>
@@ -4509,13 +4509,13 @@
         <v>47189</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>289</v>
       </c>
       <c r="M14" s="7">
         <v>124</v>
@@ -4524,13 +4524,13 @@
         <v>128576</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>289</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>290</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>292</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4598,13 @@
         <v>25652</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>292</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>293</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>295</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -4613,13 +4613,13 @@
         <v>24985</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>296</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>298</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -4628,13 +4628,13 @@
         <v>50637</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>297</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>299</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4649,13 @@
         <v>62758</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -4664,13 +4664,13 @@
         <v>41098</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>303</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>304</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>307</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
@@ -4679,13 +4679,13 @@
         <v>103856</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4753,13 @@
         <v>83635</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>310</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>311</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>313</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -4768,13 +4768,13 @@
         <v>70601</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>312</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>313</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>314</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>315</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -4783,10 +4783,10 @@
         <v>154237</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>315</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>15</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>317</v>
@@ -4825,7 +4825,7 @@
         <v>322</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>20</v>
+        <v>323</v>
       </c>
       <c r="M20" s="7">
         <v>390</v>
@@ -4834,13 +4834,13 @@
         <v>412062</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>22</v>
+        <v>326</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,7 +4917,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AD3C8B0-3077-4C35-A666-A01CFC145A5C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC52F62-9447-4950-A9CF-E7DE8AC1AB1A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4934,7 +4934,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5041,13 +5041,13 @@
         <v>835</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5056,13 +5056,13 @@
         <v>2140</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5071,13 +5071,13 @@
         <v>2974</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,10 +5092,10 @@
         <v>13378</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5107,13 +5107,13 @@
         <v>9151</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -5122,13 +5122,13 @@
         <v>22529</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5196,13 @@
         <v>13366</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -5211,13 +5211,13 @@
         <v>11308</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -5226,13 +5226,13 @@
         <v>24674</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>350</v>
+        <v>352</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5247,13 @@
         <v>46946</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -5262,13 +5262,13 @@
         <v>36686</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="M8" s="7">
         <v>101</v>
@@ -5277,13 +5277,13 @@
         <v>83632</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5351,13 @@
         <v>19227</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>362</v>
+        <v>298</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -5366,7 +5366,7 @@
         <v>29089</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>363</v>
+        <v>104</v>
       </c>
       <c r="K10" s="7" t="s">
         <v>364</v>
@@ -5381,13 +5381,13 @@
         <v>48316</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>368</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5402,13 @@
         <v>97223</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>308</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>369</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>370</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="H11" s="7">
         <v>108</v>
@@ -5417,13 +5417,13 @@
         <v>80143</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>372</v>
+        <v>112</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="M11" s="7">
         <v>200</v>
@@ -5432,13 +5432,13 @@
         <v>177366</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>375</v>
+        <v>101</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +5506,13 @@
         <v>9479</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>31</v>
+        <v>375</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>379</v>
+        <v>376</v>
       </c>
       <c r="H13" s="7">
         <v>24</v>
@@ -5521,13 +5521,13 @@
         <v>19853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>380</v>
+        <v>17</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>236</v>
+        <v>377</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -5536,13 +5536,13 @@
         <v>29332</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>382</v>
+        <v>379</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>383</v>
+        <v>380</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5557,13 @@
         <v>48558</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>41</v>
+        <v>384</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -5572,13 +5572,13 @@
         <v>59925</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>387</v>
+        <v>25</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>388</v>
+        <v>385</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>229</v>
+        <v>386</v>
       </c>
       <c r="M14" s="7">
         <v>112</v>
@@ -5587,13 +5587,13 @@
         <v>108484</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>387</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>388</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>389</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>390</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5661,13 @@
         <v>22742</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>391</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>392</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>393</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -5676,13 +5676,13 @@
         <v>33661</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>394</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>396</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -5691,13 +5691,13 @@
         <v>56403</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>396</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>398</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>399</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5712,13 @@
         <v>81264</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>400</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>401</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="H17" s="7">
         <v>102</v>
@@ -5727,13 +5727,13 @@
         <v>79255</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>402</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>403</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>405</v>
       </c>
       <c r="M17" s="7">
         <v>181</v>
@@ -5742,13 +5742,13 @@
         <v>160518</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="P17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6906-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6906-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16CEB619-1B3E-4FE3-AC55-D36F221996CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C80B0A0-79E0-430F-82CE-015462F8C902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{3B6E7990-77A5-43E3-8BD3-C6C4E0F04847}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D480039-B26B-4F5A-84B0-7D4D13E9112E}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="426">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="428">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -71,7 +71,7 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>6,3%</t>
@@ -80,7 +80,7 @@
     <t>0,0%</t>
   </si>
   <si>
-    <t>26,2%</t>
+    <t>32,76%</t>
   </si>
   <si>
     <t>0%</t>
@@ -92,1231 +92,1237 @@
     <t>4,5%</t>
   </si>
   <si>
+    <t>25,2%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>93,7%</t>
+  </si>
+  <si>
+    <t>67,24%</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>76,75%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>74,8%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>17,49%</t>
+  </si>
+  <si>
+    <t>9,39%</t>
+  </si>
+  <si>
+    <t>30,03%</t>
+  </si>
+  <si>
+    <t>21,61%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>42,3%</t>
+  </si>
+  <si>
+    <t>18,69%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>28,21%</t>
+  </si>
+  <si>
+    <t>82,51%</t>
+  </si>
+  <si>
+    <t>69,97%</t>
+  </si>
+  <si>
+    <t>90,61%</t>
+  </si>
+  <si>
+    <t>78,39%</t>
+  </si>
+  <si>
+    <t>57,7%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>71,79%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>22,31%</t>
+  </si>
+  <si>
+    <t>16,32%</t>
+  </si>
+  <si>
+    <t>30,81%</t>
+  </si>
+  <si>
+    <t>16,01%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>27,57%</t>
+  </si>
+  <si>
+    <t>20,63%</t>
+  </si>
+  <si>
+    <t>14,65%</t>
+  </si>
+  <si>
+    <t>26,91%</t>
+  </si>
+  <si>
+    <t>77,69%</t>
+  </si>
+  <si>
+    <t>69,19%</t>
+  </si>
+  <si>
+    <t>83,68%</t>
+  </si>
+  <si>
+    <t>83,99%</t>
+  </si>
+  <si>
+    <t>72,43%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>79,37%</t>
+  </si>
+  <si>
+    <t>73,09%</t>
+  </si>
+  <si>
+    <t>85,35%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>20,26%</t>
+  </si>
+  <si>
+    <t>12,34%</t>
+  </si>
+  <si>
+    <t>29,29%</t>
+  </si>
+  <si>
+    <t>27,55%</t>
+  </si>
+  <si>
+    <t>16,03%</t>
+  </si>
+  <si>
+    <t>41,89%</t>
+  </si>
+  <si>
+    <t>22,43%</t>
+  </si>
+  <si>
+    <t>15,88%</t>
+  </si>
+  <si>
+    <t>29,89%</t>
+  </si>
+  <si>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>70,71%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>72,45%</t>
+  </si>
+  <si>
+    <t>58,11%</t>
+  </si>
+  <si>
+    <t>83,97%</t>
+  </si>
+  <si>
+    <t>77,57%</t>
+  </si>
+  <si>
+    <t>70,11%</t>
+  </si>
+  <si>
+    <t>84,12%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>28,93%</t>
+  </si>
+  <si>
+    <t>21,91%</t>
+  </si>
+  <si>
+    <t>37,82%</t>
+  </si>
+  <si>
+    <t>23,39%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>32,64%</t>
+  </si>
+  <si>
+    <t>26,76%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>32,87%</t>
+  </si>
+  <si>
+    <t>71,07%</t>
+  </si>
+  <si>
+    <t>62,18%</t>
+  </si>
+  <si>
+    <t>78,09%</t>
+  </si>
+  <si>
+    <t>76,61%</t>
+  </si>
+  <si>
+    <t>67,36%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>73,24%</t>
+  </si>
+  <si>
+    <t>67,13%</t>
+  </si>
+  <si>
+    <t>78,82%</t>
+  </si>
+  <si>
+    <t>22,59%</t>
+  </si>
+  <si>
+    <t>18,68%</t>
+  </si>
+  <si>
+    <t>26,81%</t>
+  </si>
+  <si>
+    <t>21,64%</t>
+  </si>
+  <si>
+    <t>16,67%</t>
+  </si>
+  <si>
+    <t>27,71%</t>
+  </si>
+  <si>
+    <t>22,29%</t>
+  </si>
+  <si>
+    <t>19,21%</t>
+  </si>
+  <si>
+    <t>25,93%</t>
+  </si>
+  <si>
+    <t>77,41%</t>
+  </si>
+  <si>
+    <t>73,19%</t>
+  </si>
+  <si>
+    <t>81,32%</t>
+  </si>
+  <si>
+    <t>78,36%</t>
+  </si>
+  <si>
+    <t>72,29%</t>
+  </si>
+  <si>
+    <t>83,33%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>74,07%</t>
+  </si>
+  <si>
+    <t>80,79%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
+  </si>
+  <si>
+    <t>23,55%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>43,8%</t>
+  </si>
+  <si>
+    <t>15,5%</t>
+  </si>
+  <si>
+    <t>67,54%</t>
+  </si>
+  <si>
+    <t>21,54%</t>
+  </si>
+  <si>
+    <t>10,05%</t>
+  </si>
+  <si>
+    <t>41,02%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>56,2%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>84,5%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>78,46%</t>
+  </si>
+  <si>
+    <t>58,98%</t>
+  </si>
+  <si>
+    <t>89,95%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>27,99%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>57,0%</t>
+  </si>
+  <si>
+    <t>23,35%</t>
+  </si>
+  <si>
+    <t>14,22%</t>
+  </si>
+  <si>
+    <t>33,24%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>72,01%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>43,0%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>76,65%</t>
+  </si>
+  <si>
+    <t>66,76%</t>
+  </si>
+  <si>
+    <t>85,78%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>23,93%</t>
+  </si>
+  <si>
+    <t>61,77%</t>
+  </si>
+  <si>
+    <t>45,79%</t>
+  </si>
+  <si>
+    <t>15,1%</t>
+  </si>
+  <si>
+    <t>86,93%</t>
+  </si>
+  <si>
+    <t>33,38%</t>
+  </si>
+  <si>
+    <t>13,26%</t>
+  </si>
+  <si>
+    <t>59,98%</t>
+  </si>
+  <si>
+    <t>76,07%</t>
+  </si>
+  <si>
+    <t>38,23%</t>
+  </si>
+  <si>
+    <t>54,21%</t>
+  </si>
+  <si>
+    <t>13,07%</t>
+  </si>
+  <si>
+    <t>84,9%</t>
+  </si>
+  <si>
+    <t>66,62%</t>
+  </si>
+  <si>
+    <t>40,02%</t>
+  </si>
+  <si>
+    <t>86,74%</t>
+  </si>
+  <si>
+    <t>23,15%</t>
+  </si>
+  <si>
+    <t>12,03%</t>
+  </si>
+  <si>
+    <t>40,15%</t>
+  </si>
+  <si>
+    <t>25,66%</t>
+  </si>
+  <si>
+    <t>11,32%</t>
+  </si>
+  <si>
+    <t>49,05%</t>
+  </si>
+  <si>
+    <t>24,0%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>35,68%</t>
+  </si>
+  <si>
+    <t>76,85%</t>
+  </si>
+  <si>
+    <t>59,85%</t>
+  </si>
+  <si>
+    <t>87,97%</t>
+  </si>
+  <si>
+    <t>74,34%</t>
+  </si>
+  <si>
+    <t>50,95%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>76,0%</t>
+  </si>
+  <si>
+    <t>64,32%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>28,4%</t>
+  </si>
+  <si>
+    <t>18,95%</t>
+  </si>
+  <si>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>40,8%</t>
+  </si>
+  <si>
+    <t>11,66%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>27,18%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>71,6%</t>
+  </si>
+  <si>
+    <t>81,05%</t>
+  </si>
+  <si>
+    <t>59,2%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
+  </si>
+  <si>
+    <t>88,34%</t>
+  </si>
+  <si>
+    <t>72,82%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>22,16%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>40,83%</t>
+  </si>
+  <si>
+    <t>23,56%</t>
+  </si>
+  <si>
+    <t>14,49%</t>
+  </si>
+  <si>
+    <t>35,7%</t>
+  </si>
+  <si>
+    <t>22,78%</t>
+  </si>
+  <si>
+    <t>15,39%</t>
+  </si>
+  <si>
+    <t>33,56%</t>
+  </si>
+  <si>
+    <t>77,84%</t>
+  </si>
+  <si>
+    <t>59,17%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>76,44%</t>
+  </si>
+  <si>
+    <t>64,3%</t>
+  </si>
+  <si>
+    <t>85,51%</t>
+  </si>
+  <si>
+    <t>77,22%</t>
+  </si>
+  <si>
+    <t>66,44%</t>
+  </si>
+  <si>
+    <t>84,61%</t>
+  </si>
+  <si>
+    <t>16,51%</t>
+  </si>
+  <si>
+    <t>10,38%</t>
+  </si>
+  <si>
+    <t>26,29%</t>
+  </si>
+  <si>
+    <t>26,63%</t>
+  </si>
+  <si>
+    <t>20,22%</t>
+  </si>
+  <si>
+    <t>36,21%</t>
+  </si>
+  <si>
+    <t>21,41%</t>
+  </si>
+  <si>
+    <t>16,3%</t>
+  </si>
+  <si>
+    <t>27,1%</t>
+  </si>
+  <si>
+    <t>83,49%</t>
+  </si>
+  <si>
+    <t>73,71%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>73,37%</t>
+  </si>
+  <si>
+    <t>63,79%</t>
+  </si>
+  <si>
+    <t>79,78%</t>
+  </si>
+  <si>
+    <t>78,59%</t>
+  </si>
+  <si>
+    <t>72,9%</t>
+  </si>
+  <si>
+    <t>83,7%</t>
+  </si>
+  <si>
+    <t>16,33%</t>
+  </si>
+  <si>
+    <t>8,23%</t>
+  </si>
+  <si>
+    <t>27,65%</t>
+  </si>
+  <si>
     <t>24,88%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>73,8%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>36,31%</t>
+  </si>
+  <si>
+    <t>21,28%</t>
+  </si>
+  <si>
+    <t>14,17%</t>
+  </si>
+  <si>
+    <t>29,09%</t>
+  </si>
+  <si>
+    <t>83,67%</t>
+  </si>
+  <si>
+    <t>72,35%</t>
+  </si>
+  <si>
+    <t>91,77%</t>
   </si>
   <si>
     <t>75,12%</t>
   </si>
   <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>29,76%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>43,89%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>10,88%</t>
-  </si>
-  <si>
-    <t>28,45%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>70,24%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>56,11%</t>
-  </si>
-  <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>71,55%</t>
-  </si>
-  <si>
-    <t>89,12%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>22,31%</t>
-  </si>
-  <si>
-    <t>16,0%</t>
-  </si>
-  <si>
-    <t>30,53%</t>
-  </si>
-  <si>
-    <t>16,01%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>29,88%</t>
-  </si>
-  <si>
-    <t>20,63%</t>
-  </si>
-  <si>
-    <t>15,01%</t>
-  </si>
-  <si>
-    <t>27,2%</t>
-  </si>
-  <si>
-    <t>77,69%</t>
-  </si>
-  <si>
-    <t>69,47%</t>
-  </si>
-  <si>
-    <t>84,0%</t>
-  </si>
-  <si>
-    <t>83,99%</t>
-  </si>
-  <si>
-    <t>70,12%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>79,37%</t>
-  </si>
-  <si>
-    <t>72,8%</t>
-  </si>
-  <si>
-    <t>84,99%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>20,26%</t>
-  </si>
-  <si>
-    <t>13,31%</t>
-  </si>
-  <si>
-    <t>30,43%</t>
-  </si>
-  <si>
-    <t>27,55%</t>
-  </si>
-  <si>
-    <t>15,21%</t>
-  </si>
-  <si>
-    <t>42,16%</t>
-  </si>
-  <si>
-    <t>22,43%</t>
-  </si>
-  <si>
-    <t>15,61%</t>
-  </si>
-  <si>
-    <t>29,85%</t>
-  </si>
-  <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>69,57%</t>
-  </si>
-  <si>
-    <t>86,69%</t>
-  </si>
-  <si>
-    <t>72,45%</t>
-  </si>
-  <si>
-    <t>57,84%</t>
-  </si>
-  <si>
-    <t>84,79%</t>
-  </si>
-  <si>
-    <t>77,57%</t>
-  </si>
-  <si>
-    <t>70,15%</t>
-  </si>
-  <si>
-    <t>84,39%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>28,93%</t>
-  </si>
-  <si>
-    <t>20,92%</t>
-  </si>
-  <si>
-    <t>36,17%</t>
-  </si>
-  <si>
-    <t>23,39%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
-  </si>
-  <si>
-    <t>33,13%</t>
-  </si>
-  <si>
-    <t>26,76%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>33,21%</t>
-  </si>
-  <si>
-    <t>71,07%</t>
-  </si>
-  <si>
-    <t>63,83%</t>
-  </si>
-  <si>
-    <t>79,08%</t>
-  </si>
-  <si>
-    <t>76,61%</t>
-  </si>
-  <si>
-    <t>66,87%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>73,24%</t>
-  </si>
-  <si>
-    <t>66,79%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>22,59%</t>
-  </si>
-  <si>
-    <t>18,76%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>21,64%</t>
-  </si>
-  <si>
-    <t>16,22%</t>
-  </si>
-  <si>
-    <t>28,2%</t>
-  </si>
-  <si>
-    <t>22,29%</t>
-  </si>
-  <si>
-    <t>19,18%</t>
-  </si>
-  <si>
-    <t>25,39%</t>
-  </si>
-  <si>
-    <t>77,41%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>81,24%</t>
-  </si>
-  <si>
-    <t>78,36%</t>
-  </si>
-  <si>
-    <t>71,8%</t>
-  </si>
-  <si>
-    <t>83,78%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>74,61%</t>
-  </si>
-  <si>
-    <t>80,82%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
-  </si>
-  <si>
-    <t>23,55%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>43,22%</t>
-  </si>
-  <si>
-    <t>67,26%</t>
-  </si>
-  <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>8,61%</t>
-  </si>
-  <si>
-    <t>38,19%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>56,78%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>32,74%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>61,81%</t>
-  </si>
-  <si>
-    <t>91,39%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>27,63%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>20,15%</t>
-  </si>
-  <si>
-    <t>57,54%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>14,89%</t>
-  </si>
-  <si>
-    <t>33,98%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>72,37%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>42,46%</t>
-  </si>
-  <si>
-    <t>79,85%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>66,02%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>16,38%</t>
-  </si>
-  <si>
-    <t>34,02%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>23,23%</t>
-  </si>
-  <si>
-    <t>48,92%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>20,95%</t>
-  </si>
-  <si>
-    <t>36,04%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>65,98%</t>
-  </si>
-  <si>
-    <t>83,62%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>51,08%</t>
-  </si>
-  <si>
-    <t>76,77%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>63,96%</t>
-  </si>
-  <si>
-    <t>79,05%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>25,89%</t>
-  </si>
-  <si>
-    <t>48,76%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>11,28%</t>
-  </si>
-  <si>
-    <t>34,36%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>22,06%</t>
-  </si>
-  <si>
-    <t>39,78%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>51,24%</t>
-  </si>
-  <si>
-    <t>74,11%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>65,64%</t>
-  </si>
-  <si>
-    <t>88,72%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>60,22%</t>
-  </si>
-  <si>
-    <t>77,94%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>16,03%</t>
-  </si>
-  <si>
-    <t>35,61%</t>
-  </si>
-  <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>43,95%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>20,6%</t>
-  </si>
-  <si>
-    <t>35,98%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>64,39%</t>
-  </si>
-  <si>
-    <t>83,97%</t>
-  </si>
-  <si>
-    <t>56,05%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>64,02%</t>
-  </si>
-  <si>
-    <t>79,4%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>21,22%</t>
-  </si>
-  <si>
-    <t>31,25%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>23,37%</t>
-  </si>
-  <si>
-    <t>36,19%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>23,75%</t>
-  </si>
-  <si>
-    <t>31,47%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>68,75%</t>
-  </si>
-  <si>
-    <t>78,78%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>63,81%</t>
-  </si>
-  <si>
-    <t>76,63%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>68,53%</t>
-  </si>
-  <si>
-    <t>76,25%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>61,88%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>86,47%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>12,95%</t>
-  </si>
-  <si>
-    <t>60,7%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>38,12%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>13,53%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>39,3%</t>
-  </si>
-  <si>
-    <t>87,05%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>39,44%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>9,84%</t>
-  </si>
-  <si>
-    <t>48,13%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>14,35%</t>
-  </si>
-  <si>
-    <t>36,61%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>60,56%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>51,87%</t>
-  </si>
-  <si>
-    <t>90,16%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>63,39%</t>
-  </si>
-  <si>
-    <t>85,65%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>28,27%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>22,84%</t>
-  </si>
-  <si>
-    <t>47,8%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>31,59%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>71,73%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>52,2%</t>
-  </si>
-  <si>
-    <t>77,16%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>68,41%</t>
-  </si>
-  <si>
-    <t>17,39%</t>
-  </si>
-  <si>
-    <t>35,05%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>16,72%</t>
-  </si>
-  <si>
-    <t>38,58%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>19,02%</t>
-  </si>
-  <si>
-    <t>32,89%</t>
-  </si>
-  <si>
-    <t>64,95%</t>
-  </si>
-  <si>
-    <t>82,61%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>61,42%</t>
-  </si>
-  <si>
-    <t>83,28%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>67,11%</t>
-  </si>
-  <si>
-    <t>80,98%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>18,57%</t>
-  </si>
-  <si>
-    <t>38,7%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>25,91%</t>
-  </si>
-  <si>
-    <t>52,32%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>25,57%</t>
-  </si>
-  <si>
-    <t>40,75%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>61,3%</t>
-  </si>
-  <si>
-    <t>81,43%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>47,68%</t>
-  </si>
-  <si>
-    <t>74,09%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>59,25%</t>
-  </si>
-  <si>
-    <t>74,43%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>29,16%</t>
-  </si>
-  <si>
-    <t>32,64%</t>
-  </si>
-  <si>
-    <t>26,49%</t>
-  </si>
-  <si>
-    <t>39,58%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,53%</t>
-  </si>
-  <si>
-    <t>31,19%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>70,84%</t>
-  </si>
-  <si>
-    <t>80,76%</t>
-  </si>
-  <si>
-    <t>67,36%</t>
-  </si>
-  <si>
-    <t>60,42%</t>
-  </si>
-  <si>
-    <t>73,51%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>68,81%</t>
-  </si>
-  <si>
-    <t>76,47%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>35,31%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>4,76%</t>
-  </si>
-  <si>
-    <t>43,9%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>3,8%</t>
-  </si>
-  <si>
-    <t>25,31%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>64,69%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>56,1%</t>
-  </si>
-  <si>
-    <t>95,24%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>74,69%</t>
-  </si>
-  <si>
-    <t>96,2%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>39,24%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>14,85%</t>
-  </si>
-  <si>
-    <t>35,81%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>14,99%</t>
-  </si>
-  <si>
-    <t>33,47%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>60,76%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>64,19%</t>
-  </si>
-  <si>
-    <t>85,15%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>66,53%</t>
-  </si>
-  <si>
-    <t>85,01%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>19,64%</t>
-  </si>
-  <si>
-    <t>34,06%</t>
-  </si>
-  <si>
-    <t>16,31%</t>
-  </si>
-  <si>
-    <t>27,74%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>65,94%</t>
-  </si>
-  <si>
-    <t>80,36%</t>
-  </si>
-  <si>
-    <t>72,26%</t>
-  </si>
-  <si>
-    <t>83,69%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>14,0%</t>
-  </si>
-  <si>
-    <t>28,65%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
+    <t>63,69%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
   </si>
   <si>
     <t>78,72%</t>
   </si>
   <si>
-    <t>71,35%</t>
-  </si>
-  <si>
-    <t>86,0%</t>
+    <t>70,91%</t>
+  </si>
+  <si>
+    <t>85,83%</t>
   </si>
   <si>
     <t>21,87%</t>
   </si>
   <si>
-    <t>14,28%</t>
-  </si>
-  <si>
-    <t>31,79%</t>
+    <t>14,53%</t>
+  </si>
+  <si>
+    <t>31,63%</t>
   </si>
   <si>
     <t>29,81%</t>
   </si>
   <si>
-    <t>22,2%</t>
-  </si>
-  <si>
-    <t>38,3%</t>
+    <t>21,69%</t>
+  </si>
+  <si>
+    <t>39,21%</t>
   </si>
   <si>
     <t>26,0%</t>
   </si>
   <si>
-    <t>20,34%</t>
-  </si>
-  <si>
-    <t>32,35%</t>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>32,25%</t>
   </si>
   <si>
     <t>78,13%</t>
   </si>
   <si>
-    <t>68,21%</t>
-  </si>
-  <si>
-    <t>85,72%</t>
+    <t>68,37%</t>
+  </si>
+  <si>
+    <t>85,47%</t>
   </si>
   <si>
     <t>70,19%</t>
   </si>
   <si>
-    <t>61,7%</t>
-  </si>
-  <si>
-    <t>77,8%</t>
+    <t>60,79%</t>
+  </si>
+  <si>
+    <t>78,31%</t>
   </si>
   <si>
     <t>74,0%</t>
   </si>
   <si>
-    <t>67,65%</t>
-  </si>
-  <si>
-    <t>79,66%</t>
+    <t>67,75%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
   </si>
   <si>
     <t>18,6%</t>
   </si>
   <si>
-    <t>14,42%</t>
-  </si>
-  <si>
-    <t>23,66%</t>
+    <t>14,06%</t>
+  </si>
+  <si>
+    <t>22,85%</t>
   </si>
   <si>
     <t>26,59%</t>
   </si>
   <si>
-    <t>22,44%</t>
-  </si>
-  <si>
-    <t>31,26%</t>
+    <t>22,33%</t>
+  </si>
+  <si>
+    <t>31,4%</t>
   </si>
   <si>
     <t>22,64%</t>
   </si>
   <si>
-    <t>19,62%</t>
-  </si>
-  <si>
-    <t>25,95%</t>
+    <t>19,59%</t>
+  </si>
+  <si>
+    <t>26,09%</t>
   </si>
   <si>
     <t>81,4%</t>
   </si>
   <si>
-    <t>76,34%</t>
-  </si>
-  <si>
-    <t>85,58%</t>
+    <t>77,15%</t>
+  </si>
+  <si>
+    <t>85,94%</t>
   </si>
   <si>
     <t>73,41%</t>
   </si>
   <si>
-    <t>68,74%</t>
-  </si>
-  <si>
-    <t>77,56%</t>
+    <t>68,6%</t>
+  </si>
+  <si>
+    <t>77,67%</t>
   </si>
   <si>
     <t>77,36%</t>
   </si>
   <si>
-    <t>74,05%</t>
-  </si>
-  <si>
-    <t>80,38%</t>
+    <t>73,91%</t>
+  </si>
+  <si>
+    <t>80,41%</t>
   </si>
 </sst>
 </file>
@@ -1728,7 +1734,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB176603-070E-4904-BD96-9844225A0AAF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB37114C-0199-4C74-8146-3E6BAEF90AA0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2791,7 +2797,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DDBE9EA-E986-4F2C-A1A7-BCAB43B4B809}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA8E366-FCB1-49B2-9765-C1FA225449F6}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2930,13 +2936,13 @@
         <v>1140</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>88</v>
+        <v>125</v>
       </c>
       <c r="K4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>7</v>
@@ -2945,13 +2951,13 @@
         <v>6354</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2966,13 +2972,13 @@
         <v>16923</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>5</v>
@@ -2981,10 +2987,10 @@
         <v>6214</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
         <v>21</v>
@@ -2996,13 +3002,13 @@
         <v>23137</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3076,13 @@
         <v>8805</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>10</v>
@@ -3085,13 +3091,13 @@
         <v>10186</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>19</v>
@@ -3100,13 +3106,13 @@
         <v>18991</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3121,13 +3127,13 @@
         <v>45639</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="H8" s="7">
         <v>15</v>
@@ -3136,13 +3142,13 @@
         <v>16721</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="M8" s="7">
         <v>60</v>
@@ -3151,13 +3157,13 @@
         <v>62360</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,13 +3231,13 @@
         <v>22260</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="H10" s="7">
         <v>19</v>
@@ -3240,13 +3246,13 @@
         <v>21932</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>40</v>
@@ -3255,13 +3261,13 @@
         <v>44192</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3276,13 +3282,13 @@
         <v>69546</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
@@ -3291,13 +3297,13 @@
         <v>41566</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="M11" s="7">
         <v>104</v>
@@ -3306,13 +3312,13 @@
         <v>111112</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3386,13 @@
         <v>28916</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -3395,13 +3401,13 @@
         <v>10953</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="M13" s="7">
         <v>36</v>
@@ -3410,13 +3416,13 @@
         <v>39869</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3431,13 +3437,13 @@
         <v>50641</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="H14" s="7">
         <v>39</v>
@@ -3446,13 +3452,13 @@
         <v>42026</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="M14" s="7">
         <v>85</v>
@@ -3461,13 +3467,13 @@
         <v>92667</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3541,13 @@
         <v>19524</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="H16" s="7">
         <v>19</v>
@@ -3550,13 +3556,13 @@
         <v>19282</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>38</v>
@@ -3565,13 +3571,13 @@
         <v>38806</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3586,13 +3592,13 @@
         <v>58757</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>40</v>
@@ -3601,13 +3607,13 @@
         <v>44814</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
@@ -3616,13 +3622,13 @@
         <v>103572</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3696,13 @@
         <v>84720</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="H19" s="7">
         <v>59</v>
@@ -3705,13 +3711,13 @@
         <v>63492</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>140</v>
@@ -3720,13 +3726,13 @@
         <v>148212</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>213</v>
+        <v>122</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3741,13 +3747,13 @@
         <v>241505</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>138</v>
@@ -3756,13 +3762,13 @@
         <v>151343</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>370</v>
@@ -3771,13 +3777,13 @@
         <v>392848</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>223</v>
+        <v>130</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,7 +3860,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2505567E-9DA8-4E8E-BA9A-1E829F85524E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7300EE8-085F-4352-874D-C8342D106981}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4321,10 +4327,10 @@
         <v>265</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>49</v>
+        <v>266</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4339,13 +4345,13 @@
         <v>80269</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="H11" s="7">
         <v>34</v>
@@ -4354,13 +4360,13 @@
         <v>36404</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="M11" s="7">
         <v>107</v>
@@ -4369,13 +4375,13 @@
         <v>116672</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>58</v>
+        <v>276</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,13 +4449,13 @@
         <v>28548</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="H13" s="7">
         <v>17</v>
@@ -4458,13 +4464,13 @@
         <v>17558</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>278</v>
+        <v>138</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M13" s="7">
         <v>43</v>
@@ -4473,10 +4479,10 @@
         <v>46106</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>281</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
         <v>282</v>
@@ -4494,7 +4500,7 @@
         <v>81387</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>283</v>
@@ -4515,7 +4521,7 @@
         <v>286</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>287</v>
+        <v>147</v>
       </c>
       <c r="M14" s="7">
         <v>124</v>
@@ -4524,13 +4530,13 @@
         <v>128576</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>287</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="P14" s="7" t="s">
-        <v>289</v>
-      </c>
       <c r="Q14" s="7" t="s">
-        <v>290</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4598,13 +4604,13 @@
         <v>25652</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>292</v>
+        <v>142</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>23</v>
@@ -4613,13 +4619,13 @@
         <v>24985</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="M16" s="7">
         <v>46</v>
@@ -4628,13 +4634,13 @@
         <v>50637</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4649,13 +4655,13 @@
         <v>62758</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>302</v>
+        <v>152</v>
       </c>
       <c r="H17" s="7">
         <v>38</v>
@@ -4664,13 +4670,13 @@
         <v>41098</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>99</v>
@@ -4679,13 +4685,13 @@
         <v>103856</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4753,13 +4759,13 @@
         <v>83635</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="H19" s="7">
         <v>67</v>
@@ -4768,13 +4774,13 @@
         <v>70601</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>312</v>
+        <v>89</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>139</v>
@@ -4783,13 +4789,13 @@
         <v>154237</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -4804,13 +4810,13 @@
         <v>266366</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="H20" s="7">
         <v>140</v>
@@ -4819,13 +4825,13 @@
         <v>145697</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>321</v>
+        <v>97</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>390</v>
@@ -4834,13 +4840,13 @@
         <v>412062</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4917,7 +4923,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DC52F62-9447-4950-A9CF-E7DE8AC1AB1A}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7225C67D-D6D6-40ED-90B3-1F9CEC800CA9}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4934,7 +4940,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5041,13 +5047,13 @@
         <v>835</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="F4" s="7" t="s">
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="H4" s="7">
         <v>4</v>
@@ -5056,13 +5062,13 @@
         <v>2140</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>5</v>
@@ -5071,13 +5077,13 @@
         <v>2974</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5092,10 +5098,10 @@
         <v>13378</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
         <v>21</v>
@@ -5107,13 +5113,13 @@
         <v>9151</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="M5" s="7">
         <v>24</v>
@@ -5122,13 +5128,13 @@
         <v>22529</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5202,13 @@
         <v>13366</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="H7" s="7">
         <v>19</v>
@@ -5211,13 +5217,13 @@
         <v>11308</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>28</v>
@@ -5226,13 +5232,13 @@
         <v>24674</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5247,13 +5253,13 @@
         <v>46946</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>54</v>
@@ -5262,13 +5268,13 @@
         <v>36686</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="M8" s="7">
         <v>101</v>
@@ -5277,13 +5283,13 @@
         <v>83632</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5357,13 @@
         <v>19227</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="H10" s="7">
         <v>38</v>
@@ -5366,13 +5372,13 @@
         <v>29089</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>104</v>
+        <v>359</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="M10" s="7">
         <v>57</v>
@@ -5381,13 +5387,13 @@
         <v>48316</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>91</v>
+        <v>362</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5402,13 +5408,13 @@
         <v>97223</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>308</v>
+        <v>366</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="H11" s="7">
         <v>108</v>
@@ -5417,13 +5423,13 @@
         <v>80143</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>112</v>
+        <v>368</v>
       </c>
       <c r="K11" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>371</v>
       </c>
       <c r="M11" s="7">
         <v>200</v>
@@ -5432,7 +5438,7 @@
         <v>177366</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>101</v>
+        <v>371</v>
       </c>
       <c r="P11" s="7" t="s">
         <v>372</v>
@@ -5521,13 +5527,13 @@
         <v>19853</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>17</v>
+        <v>377</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="M13" s="7">
         <v>34</v>
@@ -5536,13 +5542,13 @@
         <v>29332</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5557,13 +5563,13 @@
         <v>48558</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="H14" s="7">
         <v>64</v>
@@ -5572,13 +5578,13 @@
         <v>59925</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>25</v>
+        <v>386</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M14" s="7">
         <v>112</v>
@@ -5587,13 +5593,13 @@
         <v>108484</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5667,13 @@
         <v>22742</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="H16" s="7">
         <v>48</v>
@@ -5676,13 +5682,13 @@
         <v>33661</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="M16" s="7">
         <v>70</v>
@@ -5691,13 +5697,13 @@
         <v>56403</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>398</v>
+        <v>400</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5712,13 +5718,13 @@
         <v>81264</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="H17" s="7">
         <v>102</v>
@@ -5727,13 +5733,13 @@
         <v>79255</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M17" s="7">
         <v>181</v>
@@ -5742,13 +5748,13 @@
         <v>160518</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5822,13 @@
         <v>65648</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="H19" s="7">
         <v>133</v>
@@ -5831,13 +5837,13 @@
         <v>96051</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>413</v>
+        <v>415</v>
       </c>
       <c r="M19" s="7">
         <v>194</v>
@@ -5846,13 +5852,13 @@
         <v>161699</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5867,13 +5873,13 @@
         <v>287370</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="H20" s="7">
         <v>341</v>
@@ -5882,13 +5888,13 @@
         <v>265160</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="M20" s="7">
         <v>618</v>
@@ -5897,13 +5903,13 @@
         <v>552529</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>425</v>
+        <v>427</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">

--- a/data/trans_orig/P6906-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P6906-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9C80B0A0-79E0-430F-82CE-015462F8C902}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{193F17E0-1A7D-4F27-A048-45730DF27275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{9D480039-B26B-4F5A-84B0-7D4D13E9112E}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{1190F3A8-930B-4C9F-A2EC-CB62AE0078C8}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="428">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="366">
   <si>
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2007 (Tasa respuesta: 10,21%)</t>
   </si>
@@ -68,114 +68,72 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>32,76%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>23,25%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>25,2%</t>
+    <t>15,37%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>25,51%</t>
+  </si>
+  <si>
+    <t>17,55%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>35,35%</t>
+  </si>
+  <si>
+    <t>16,0%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>24,31%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>93,7%</t>
-  </si>
-  <si>
-    <t>67,24%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>76,75%</t>
+    <t>84,63%</t>
+  </si>
+  <si>
+    <t>74,49%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>82,45%</t>
+  </si>
+  <si>
+    <t>64,65%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
+  </si>
+  <si>
+    <t>84,0%</t>
+  </si>
+  <si>
+    <t>75,69%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
   <si>
     <t>100%</t>
   </si>
   <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>74,8%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>17,49%</t>
-  </si>
-  <si>
-    <t>9,39%</t>
-  </si>
-  <si>
-    <t>30,03%</t>
-  </si>
-  <si>
-    <t>21,61%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>42,3%</t>
-  </si>
-  <si>
-    <t>18,69%</t>
-  </si>
-  <si>
-    <t>11,31%</t>
-  </si>
-  <si>
-    <t>28,21%</t>
-  </si>
-  <si>
-    <t>82,51%</t>
-  </si>
-  <si>
-    <t>69,97%</t>
-  </si>
-  <si>
-    <t>90,61%</t>
-  </si>
-  <si>
-    <t>78,39%</t>
-  </si>
-  <si>
-    <t>57,7%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>71,79%</t>
-  </si>
-  <si>
-    <t>88,69%</t>
-  </si>
-  <si>
     <t>10-50.000 hab</t>
   </si>
   <si>
@@ -233,7 +191,7 @@
     <t>85,35%</t>
   </si>
   <si>
-    <t>&gt;50.000hab</t>
+    <t>&gt;50.000 hab</t>
   </si>
   <si>
     <t>20,26%</t>
@@ -407,922 +365,778 @@
     <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2012 (Tasa respuesta: 7,84%)</t>
   </si>
   <si>
+    <t>18,31%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>27,75%</t>
+  </si>
+  <si>
+    <t>33,06%</t>
+  </si>
+  <si>
+    <t>17,8%</t>
+  </si>
+  <si>
+    <t>51,12%</t>
+  </si>
+  <si>
+    <t>22,87%</t>
+  </si>
+  <si>
+    <t>15,23%</t>
+  </si>
+  <si>
+    <t>30,09%</t>
+  </si>
+  <si>
+    <t>81,69%</t>
+  </si>
+  <si>
+    <t>72,25%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>66,94%</t>
+  </si>
+  <si>
+    <t>48,88%</t>
+  </si>
+  <si>
+    <t>82,2%</t>
+  </si>
+  <si>
+    <t>77,13%</t>
+  </si>
+  <si>
+    <t>69,91%</t>
+  </si>
+  <si>
+    <t>84,77%</t>
+  </si>
+  <si>
+    <t>24,25%</t>
+  </si>
+  <si>
+    <t>15,32%</t>
+  </si>
+  <si>
+    <t>34,08%</t>
+  </si>
+  <si>
+    <t>34,54%</t>
+  </si>
+  <si>
+    <t>22,04%</t>
+  </si>
+  <si>
+    <t>47,09%</t>
+  </si>
+  <si>
+    <t>28,46%</t>
+  </si>
+  <si>
+    <t>21,4%</t>
+  </si>
+  <si>
+    <t>36,82%</t>
+  </si>
+  <si>
+    <t>75,75%</t>
+  </si>
+  <si>
+    <t>65,92%</t>
+  </si>
+  <si>
+    <t>84,68%</t>
+  </si>
+  <si>
+    <t>65,46%</t>
+  </si>
+  <si>
+    <t>52,91%</t>
+  </si>
+  <si>
+    <t>77,96%</t>
+  </si>
+  <si>
+    <t>71,54%</t>
+  </si>
+  <si>
+    <t>63,18%</t>
+  </si>
+  <si>
+    <t>78,6%</t>
+  </si>
+  <si>
+    <t>36,35%</t>
+  </si>
+  <si>
+    <t>25,53%</t>
+  </si>
+  <si>
+    <t>48,14%</t>
+  </si>
+  <si>
+    <t>20,67%</t>
+  </si>
+  <si>
+    <t>11,08%</t>
+  </si>
+  <si>
+    <t>32,75%</t>
+  </si>
+  <si>
+    <t>30,08%</t>
+  </si>
+  <si>
+    <t>21,79%</t>
+  </si>
+  <si>
+    <t>38,39%</t>
+  </si>
+  <si>
+    <t>63,65%</t>
+  </si>
+  <si>
+    <t>51,86%</t>
+  </si>
+  <si>
+    <t>74,47%</t>
+  </si>
+  <si>
+    <t>79,33%</t>
+  </si>
+  <si>
+    <t>67,25%</t>
+  </si>
+  <si>
+    <t>88,92%</t>
+  </si>
+  <si>
+    <t>69,92%</t>
+  </si>
+  <si>
+    <t>61,61%</t>
+  </si>
+  <si>
+    <t>78,21%</t>
+  </si>
+  <si>
+    <t>24,94%</t>
+  </si>
+  <si>
+    <t>16,29%</t>
+  </si>
+  <si>
+    <t>35,14%</t>
+  </si>
+  <si>
+    <t>18,99%</t>
+  </si>
+  <si>
+    <t>41,64%</t>
+  </si>
+  <si>
+    <t>27,26%</t>
+  </si>
+  <si>
+    <t>20,56%</t>
+  </si>
+  <si>
+    <t>35,54%</t>
+  </si>
+  <si>
+    <t>75,06%</t>
+  </si>
+  <si>
+    <t>64,86%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>58,36%</t>
+  </si>
+  <si>
+    <t>81,01%</t>
+  </si>
+  <si>
+    <t>72,74%</t>
+  </si>
+  <si>
+    <t>64,46%</t>
+  </si>
+  <si>
+    <t>79,44%</t>
+  </si>
+  <si>
+    <t>25,97%</t>
+  </si>
+  <si>
+    <t>21,5%</t>
+  </si>
+  <si>
+    <t>31,52%</t>
+  </si>
+  <si>
+    <t>29,55%</t>
+  </si>
+  <si>
+    <t>23,1%</t>
+  </si>
+  <si>
+    <t>35,86%</t>
+  </si>
+  <si>
+    <t>27,39%</t>
+  </si>
+  <si>
     <t>23,55%</t>
   </si>
   <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>43,8%</t>
-  </si>
-  <si>
-    <t>15,5%</t>
+    <t>31,38%</t>
+  </si>
+  <si>
+    <t>74,03%</t>
+  </si>
+  <si>
+    <t>68,48%</t>
+  </si>
+  <si>
+    <t>78,5%</t>
+  </si>
+  <si>
+    <t>70,45%</t>
+  </si>
+  <si>
+    <t>64,14%</t>
+  </si>
+  <si>
+    <t>76,9%</t>
+  </si>
+  <si>
+    <t>72,61%</t>
+  </si>
+  <si>
+    <t>68,62%</t>
+  </si>
+  <si>
+    <t>76,45%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2016 (Tasa respuesta: 8,05%)</t>
+  </si>
+  <si>
+    <t>23,27%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>36,13%</t>
+  </si>
+  <si>
+    <t>29,79%</t>
+  </si>
+  <si>
+    <t>15,45%</t>
+  </si>
+  <si>
+    <t>48,92%</t>
+  </si>
+  <si>
+    <t>25,57%</t>
+  </si>
+  <si>
+    <t>17,07%</t>
+  </si>
+  <si>
+    <t>36,98%</t>
+  </si>
+  <si>
+    <t>76,73%</t>
+  </si>
+  <si>
+    <t>63,87%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>70,21%</t>
+  </si>
+  <si>
+    <t>51,08%</t>
+  </si>
+  <si>
+    <t>84,55%</t>
+  </si>
+  <si>
+    <t>74,43%</t>
+  </si>
+  <si>
+    <t>63,02%</t>
+  </si>
+  <si>
+    <t>82,93%</t>
+  </si>
+  <si>
+    <t>17,23%</t>
+  </si>
+  <si>
+    <t>28,13%</t>
+  </si>
+  <si>
+    <t>34,47%</t>
+  </si>
+  <si>
+    <t>22,46%</t>
+  </si>
+  <si>
+    <t>47,95%</t>
+  </si>
+  <si>
+    <t>23,51%</t>
+  </si>
+  <si>
+    <t>16,36%</t>
+  </si>
+  <si>
+    <t>31,32%</t>
+  </si>
+  <si>
+    <t>82,77%</t>
+  </si>
+  <si>
+    <t>71,87%</t>
+  </si>
+  <si>
+    <t>65,53%</t>
+  </si>
+  <si>
+    <t>52,05%</t>
+  </si>
+  <si>
+    <t>77,54%</t>
+  </si>
+  <si>
+    <t>76,49%</t>
+  </si>
+  <si>
+    <t>68,68%</t>
+  </si>
+  <si>
+    <t>83,64%</t>
+  </si>
+  <si>
+    <t>17,69%</t>
+  </si>
+  <si>
+    <t>34,97%</t>
+  </si>
+  <si>
+    <t>27,12%</t>
+  </si>
+  <si>
+    <t>16,17%</t>
+  </si>
+  <si>
+    <t>39,09%</t>
+  </si>
+  <si>
+    <t>26,39%</t>
+  </si>
+  <si>
+    <t>34,84%</t>
+  </si>
+  <si>
+    <t>65,03%</t>
+  </si>
+  <si>
+    <t>82,31%</t>
+  </si>
+  <si>
+    <t>72,88%</t>
+  </si>
+  <si>
+    <t>60,91%</t>
+  </si>
+  <si>
+    <t>83,83%</t>
+  </si>
+  <si>
+    <t>73,61%</t>
+  </si>
+  <si>
+    <t>65,16%</t>
+  </si>
+  <si>
+    <t>29,01%</t>
+  </si>
+  <si>
+    <t>20,13%</t>
+  </si>
+  <si>
+    <t>39,19%</t>
+  </si>
+  <si>
+    <t>37,81%</t>
+  </si>
+  <si>
+    <t>26,66%</t>
+  </si>
+  <si>
+    <t>51,53%</t>
+  </si>
+  <si>
+    <t>32,78%</t>
+  </si>
+  <si>
+    <t>25,38%</t>
+  </si>
+  <si>
+    <t>41,12%</t>
+  </si>
+  <si>
+    <t>70,99%</t>
+  </si>
+  <si>
+    <t>60,81%</t>
+  </si>
+  <si>
+    <t>79,87%</t>
+  </si>
+  <si>
+    <t>62,19%</t>
+  </si>
+  <si>
+    <t>48,47%</t>
+  </si>
+  <si>
+    <t>73,34%</t>
+  </si>
+  <si>
+    <t>67,22%</t>
+  </si>
+  <si>
+    <t>58,88%</t>
+  </si>
+  <si>
+    <t>74,62%</t>
+  </si>
+  <si>
+    <t>23,9%</t>
+  </si>
+  <si>
+    <t>19,45%</t>
+  </si>
+  <si>
+    <t>29,0%</t>
+  </si>
+  <si>
+    <t>26,98%</t>
+  </si>
+  <si>
+    <t>39,47%</t>
+  </si>
+  <si>
+    <t>27,24%</t>
+  </si>
+  <si>
+    <t>23,64%</t>
+  </si>
+  <si>
+    <t>31,07%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>71,0%</t>
+  </si>
+  <si>
+    <t>80,55%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>73,02%</t>
+  </si>
+  <si>
+    <t>72,76%</t>
+  </si>
+  <si>
+    <t>68,93%</t>
+  </si>
+  <si>
+    <t>76,36%</t>
+  </si>
+  <si>
+    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
+  </si>
+  <si>
+    <t>18,87%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>32,12%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>15,12%</t>
+  </si>
+  <si>
+    <t>33,53%</t>
+  </si>
+  <si>
+    <t>20,86%</t>
+  </si>
+  <si>
+    <t>13,76%</t>
+  </si>
+  <si>
+    <t>29,49%</t>
+  </si>
+  <si>
+    <t>81,13%</t>
+  </si>
+  <si>
+    <t>67,88%</t>
+  </si>
+  <si>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>66,47%</t>
+  </si>
+  <si>
+    <t>84,88%</t>
+  </si>
+  <si>
+    <t>79,14%</t>
+  </si>
+  <si>
+    <t>70,51%</t>
+  </si>
+  <si>
+    <t>86,24%</t>
+  </si>
+  <si>
+    <t>17,01%</t>
+  </si>
+  <si>
+    <t>10,55%</t>
+  </si>
+  <si>
+    <t>27,59%</t>
+  </si>
+  <si>
+    <t>26,71%</t>
+  </si>
+  <si>
+    <t>20,41%</t>
+  </si>
+  <si>
+    <t>35,93%</t>
+  </si>
+  <si>
+    <t>21,56%</t>
+  </si>
+  <si>
+    <t>27,52%</t>
+  </si>
+  <si>
+    <t>82,99%</t>
+  </si>
+  <si>
+    <t>72,41%</t>
+  </si>
+  <si>
+    <t>89,45%</t>
+  </si>
+  <si>
+    <t>73,29%</t>
+  </si>
+  <si>
+    <t>64,07%</t>
+  </si>
+  <si>
+    <t>79,59%</t>
+  </si>
+  <si>
+    <t>78,44%</t>
+  </si>
+  <si>
+    <t>72,48%</t>
+  </si>
+  <si>
+    <t>16,77%</t>
+  </si>
+  <si>
+    <t>8,57%</t>
+  </si>
+  <si>
+    <t>28,34%</t>
+  </si>
+  <si>
+    <t>18,81%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>18,07%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>26,02%</t>
+  </si>
+  <si>
+    <t>83,23%</t>
+  </si>
+  <si>
+    <t>71,66%</t>
+  </si>
+  <si>
+    <t>91,43%</t>
+  </si>
+  <si>
+    <t>81,19%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>81,93%</t>
+  </si>
+  <si>
+    <t>73,98%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>22,45%</t>
+  </si>
+  <si>
+    <t>14,9%</t>
+  </si>
+  <si>
+    <t>32,46%</t>
+  </si>
+  <si>
+    <t>30,59%</t>
+  </si>
+  <si>
+    <t>22,71%</t>
+  </si>
+  <si>
+    <t>40,69%</t>
+  </si>
+  <si>
+    <t>26,58%</t>
+  </si>
+  <si>
+    <t>21,2%</t>
+  </si>
+  <si>
+    <t>32,86%</t>
+  </si>
+  <si>
+    <t>77,55%</t>
   </si>
   <si>
     <t>67,54%</t>
   </si>
   <si>
-    <t>21,54%</t>
-  </si>
-  <si>
-    <t>10,05%</t>
-  </si>
-  <si>
-    <t>41,02%</t>
-  </si>
-  <si>
-    <t>76,45%</t>
-  </si>
-  <si>
-    <t>56,2%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>84,5%</t>
-  </si>
-  <si>
-    <t>32,46%</t>
-  </si>
-  <si>
-    <t>78,46%</t>
-  </si>
-  <si>
-    <t>58,98%</t>
-  </si>
-  <si>
-    <t>89,95%</t>
-  </si>
-  <si>
-    <t>16,17%</t>
-  </si>
-  <si>
-    <t>8,27%</t>
-  </si>
-  <si>
-    <t>27,99%</t>
-  </si>
-  <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>20,13%</t>
-  </si>
-  <si>
-    <t>57,0%</t>
-  </si>
-  <si>
-    <t>23,35%</t>
-  </si>
-  <si>
-    <t>14,22%</t>
-  </si>
-  <si>
-    <t>33,24%</t>
-  </si>
-  <si>
-    <t>83,83%</t>
-  </si>
-  <si>
-    <t>72,01%</t>
-  </si>
-  <si>
-    <t>91,73%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
-  </si>
-  <si>
-    <t>43,0%</t>
-  </si>
-  <si>
-    <t>79,87%</t>
-  </si>
-  <si>
-    <t>76,65%</t>
-  </si>
-  <si>
-    <t>66,76%</t>
-  </si>
-  <si>
-    <t>85,78%</t>
-  </si>
-  <si>
-    <t>24,25%</t>
-  </si>
-  <si>
-    <t>15,32%</t>
-  </si>
-  <si>
-    <t>34,08%</t>
-  </si>
-  <si>
-    <t>34,54%</t>
-  </si>
-  <si>
-    <t>22,04%</t>
-  </si>
-  <si>
-    <t>47,09%</t>
-  </si>
-  <si>
-    <t>28,46%</t>
-  </si>
-  <si>
-    <t>21,4%</t>
-  </si>
-  <si>
-    <t>36,82%</t>
-  </si>
-  <si>
-    <t>75,75%</t>
-  </si>
-  <si>
-    <t>65,92%</t>
-  </si>
-  <si>
-    <t>84,68%</t>
-  </si>
-  <si>
-    <t>65,46%</t>
-  </si>
-  <si>
-    <t>52,91%</t>
-  </si>
-  <si>
-    <t>77,96%</t>
-  </si>
-  <si>
-    <t>71,54%</t>
-  </si>
-  <si>
-    <t>63,18%</t>
-  </si>
-  <si>
-    <t>78,6%</t>
-  </si>
-  <si>
-    <t>36,35%</t>
-  </si>
-  <si>
-    <t>25,53%</t>
-  </si>
-  <si>
-    <t>48,14%</t>
-  </si>
-  <si>
-    <t>20,67%</t>
-  </si>
-  <si>
-    <t>11,08%</t>
-  </si>
-  <si>
-    <t>32,75%</t>
-  </si>
-  <si>
-    <t>30,08%</t>
-  </si>
-  <si>
-    <t>21,79%</t>
-  </si>
-  <si>
-    <t>38,39%</t>
-  </si>
-  <si>
-    <t>63,65%</t>
-  </si>
-  <si>
-    <t>51,86%</t>
-  </si>
-  <si>
-    <t>74,47%</t>
-  </si>
-  <si>
-    <t>79,33%</t>
-  </si>
-  <si>
-    <t>67,25%</t>
-  </si>
-  <si>
-    <t>88,92%</t>
-  </si>
-  <si>
-    <t>69,92%</t>
-  </si>
-  <si>
-    <t>61,61%</t>
-  </si>
-  <si>
-    <t>78,21%</t>
-  </si>
-  <si>
-    <t>24,94%</t>
-  </si>
-  <si>
-    <t>16,29%</t>
-  </si>
-  <si>
-    <t>35,14%</t>
-  </si>
-  <si>
-    <t>18,99%</t>
-  </si>
-  <si>
-    <t>41,64%</t>
-  </si>
-  <si>
-    <t>27,26%</t>
-  </si>
-  <si>
-    <t>20,56%</t>
-  </si>
-  <si>
-    <t>35,54%</t>
-  </si>
-  <si>
-    <t>75,06%</t>
-  </si>
-  <si>
-    <t>64,86%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>58,36%</t>
-  </si>
-  <si>
-    <t>81,01%</t>
-  </si>
-  <si>
-    <t>72,74%</t>
-  </si>
-  <si>
-    <t>64,46%</t>
-  </si>
-  <si>
-    <t>79,44%</t>
-  </si>
-  <si>
-    <t>25,97%</t>
-  </si>
-  <si>
-    <t>21,5%</t>
-  </si>
-  <si>
-    <t>31,52%</t>
-  </si>
-  <si>
-    <t>29,55%</t>
-  </si>
-  <si>
-    <t>23,1%</t>
-  </si>
-  <si>
-    <t>35,86%</t>
-  </si>
-  <si>
-    <t>27,39%</t>
-  </si>
-  <si>
-    <t>31,38%</t>
-  </si>
-  <si>
-    <t>74,03%</t>
-  </si>
-  <si>
-    <t>68,48%</t>
-  </si>
-  <si>
-    <t>78,5%</t>
-  </si>
-  <si>
-    <t>70,45%</t>
-  </si>
-  <si>
-    <t>64,14%</t>
-  </si>
-  <si>
-    <t>76,9%</t>
-  </si>
-  <si>
-    <t>72,61%</t>
-  </si>
-  <si>
-    <t>68,62%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2016 (Tasa respuesta: 8,05%)</t>
-  </si>
-  <si>
-    <t>23,93%</t>
-  </si>
-  <si>
-    <t>61,77%</t>
-  </si>
-  <si>
-    <t>45,79%</t>
-  </si>
-  <si>
-    <t>15,1%</t>
-  </si>
-  <si>
-    <t>86,93%</t>
-  </si>
-  <si>
-    <t>33,38%</t>
-  </si>
-  <si>
-    <t>13,26%</t>
-  </si>
-  <si>
-    <t>59,98%</t>
-  </si>
-  <si>
-    <t>76,07%</t>
-  </si>
-  <si>
-    <t>38,23%</t>
-  </si>
-  <si>
-    <t>54,21%</t>
-  </si>
-  <si>
-    <t>13,07%</t>
-  </si>
-  <si>
-    <t>84,9%</t>
-  </si>
-  <si>
-    <t>66,62%</t>
-  </si>
-  <si>
-    <t>40,02%</t>
-  </si>
-  <si>
-    <t>86,74%</t>
-  </si>
-  <si>
-    <t>23,15%</t>
-  </si>
-  <si>
-    <t>12,03%</t>
-  </si>
-  <si>
-    <t>40,15%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>11,32%</t>
-  </si>
-  <si>
-    <t>49,05%</t>
-  </si>
-  <si>
-    <t>24,0%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>35,68%</t>
-  </si>
-  <si>
-    <t>76,85%</t>
-  </si>
-  <si>
-    <t>59,85%</t>
-  </si>
-  <si>
-    <t>87,97%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
-  </si>
-  <si>
-    <t>50,95%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>76,0%</t>
-  </si>
-  <si>
-    <t>64,32%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>17,23%</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>28,13%</t>
-  </si>
-  <si>
-    <t>34,47%</t>
-  </si>
-  <si>
-    <t>22,46%</t>
-  </si>
-  <si>
-    <t>47,95%</t>
-  </si>
-  <si>
-    <t>23,51%</t>
-  </si>
-  <si>
-    <t>16,36%</t>
-  </si>
-  <si>
-    <t>31,32%</t>
-  </si>
-  <si>
-    <t>82,77%</t>
-  </si>
-  <si>
-    <t>71,87%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>65,53%</t>
-  </si>
-  <si>
-    <t>52,05%</t>
-  </si>
-  <si>
-    <t>77,54%</t>
-  </si>
-  <si>
-    <t>76,49%</t>
-  </si>
-  <si>
-    <t>68,68%</t>
-  </si>
-  <si>
-    <t>83,64%</t>
-  </si>
-  <si>
-    <t>17,69%</t>
-  </si>
-  <si>
-    <t>34,97%</t>
-  </si>
-  <si>
-    <t>27,12%</t>
-  </si>
-  <si>
-    <t>39,09%</t>
-  </si>
-  <si>
-    <t>26,39%</t>
-  </si>
-  <si>
-    <t>34,84%</t>
-  </si>
-  <si>
-    <t>65,03%</t>
-  </si>
-  <si>
-    <t>82,31%</t>
-  </si>
-  <si>
-    <t>72,88%</t>
-  </si>
-  <si>
-    <t>60,91%</t>
-  </si>
-  <si>
-    <t>73,61%</t>
-  </si>
-  <si>
-    <t>65,16%</t>
-  </si>
-  <si>
-    <t>29,01%</t>
-  </si>
-  <si>
-    <t>39,19%</t>
-  </si>
-  <si>
-    <t>37,81%</t>
-  </si>
-  <si>
-    <t>26,66%</t>
-  </si>
-  <si>
-    <t>51,53%</t>
-  </si>
-  <si>
-    <t>32,78%</t>
-  </si>
-  <si>
-    <t>25,38%</t>
-  </si>
-  <si>
-    <t>41,12%</t>
-  </si>
-  <si>
-    <t>70,99%</t>
-  </si>
-  <si>
-    <t>60,81%</t>
-  </si>
-  <si>
-    <t>62,19%</t>
-  </si>
-  <si>
-    <t>48,47%</t>
-  </si>
-  <si>
-    <t>73,34%</t>
-  </si>
-  <si>
-    <t>67,22%</t>
-  </si>
-  <si>
-    <t>58,88%</t>
-  </si>
-  <si>
-    <t>74,62%</t>
-  </si>
-  <si>
-    <t>23,9%</t>
-  </si>
-  <si>
-    <t>19,45%</t>
-  </si>
-  <si>
-    <t>29,0%</t>
-  </si>
-  <si>
-    <t>26,98%</t>
-  </si>
-  <si>
-    <t>39,47%</t>
-  </si>
-  <si>
-    <t>27,24%</t>
-  </si>
-  <si>
-    <t>23,64%</t>
-  </si>
-  <si>
-    <t>31,07%</t>
-  </si>
-  <si>
-    <t>76,1%</t>
-  </si>
-  <si>
-    <t>71,0%</t>
-  </si>
-  <si>
-    <t>80,55%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>73,02%</t>
-  </si>
-  <si>
-    <t>72,76%</t>
-  </si>
-  <si>
-    <t>68,93%</t>
-  </si>
-  <si>
-    <t>76,36%</t>
-  </si>
-  <si>
-    <t>Población según si su trabajo le afecta de manera que tiene problemas de sueño en 2023 (Tasa respuesta: 9,29%)</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>28,4%</t>
-  </si>
-  <si>
-    <t>18,95%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>40,8%</t>
-  </si>
-  <si>
-    <t>11,66%</t>
-  </si>
-  <si>
-    <t>4,09%</t>
-  </si>
-  <si>
-    <t>27,18%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>71,6%</t>
-  </si>
-  <si>
-    <t>81,05%</t>
-  </si>
-  <si>
-    <t>59,2%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>88,34%</t>
-  </si>
-  <si>
-    <t>72,82%</t>
-  </si>
-  <si>
-    <t>95,91%</t>
-  </si>
-  <si>
-    <t>22,16%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>40,83%</t>
-  </si>
-  <si>
-    <t>23,56%</t>
-  </si>
-  <si>
-    <t>14,49%</t>
-  </si>
-  <si>
-    <t>35,7%</t>
-  </si>
-  <si>
-    <t>22,78%</t>
-  </si>
-  <si>
-    <t>15,39%</t>
-  </si>
-  <si>
-    <t>33,56%</t>
-  </si>
-  <si>
-    <t>77,84%</t>
-  </si>
-  <si>
-    <t>59,17%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>76,44%</t>
-  </si>
-  <si>
-    <t>64,3%</t>
-  </si>
-  <si>
-    <t>85,51%</t>
-  </si>
-  <si>
-    <t>77,22%</t>
-  </si>
-  <si>
-    <t>66,44%</t>
-  </si>
-  <si>
-    <t>84,61%</t>
-  </si>
-  <si>
-    <t>16,51%</t>
-  </si>
-  <si>
-    <t>10,38%</t>
-  </si>
-  <si>
-    <t>26,29%</t>
-  </si>
-  <si>
-    <t>26,63%</t>
-  </si>
-  <si>
-    <t>20,22%</t>
-  </si>
-  <si>
-    <t>36,21%</t>
-  </si>
-  <si>
-    <t>21,41%</t>
-  </si>
-  <si>
-    <t>16,3%</t>
-  </si>
-  <si>
-    <t>27,1%</t>
-  </si>
-  <si>
-    <t>83,49%</t>
-  </si>
-  <si>
-    <t>73,71%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>73,37%</t>
-  </si>
-  <si>
-    <t>63,79%</t>
-  </si>
-  <si>
-    <t>79,78%</t>
-  </si>
-  <si>
-    <t>78,59%</t>
-  </si>
-  <si>
-    <t>72,9%</t>
-  </si>
-  <si>
-    <t>83,7%</t>
-  </si>
-  <si>
-    <t>16,33%</t>
-  </si>
-  <si>
-    <t>8,23%</t>
-  </si>
-  <si>
-    <t>27,65%</t>
-  </si>
-  <si>
-    <t>24,88%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>36,31%</t>
-  </si>
-  <si>
-    <t>21,28%</t>
-  </si>
-  <si>
-    <t>14,17%</t>
-  </si>
-  <si>
-    <t>29,09%</t>
-  </si>
-  <si>
-    <t>83,67%</t>
-  </si>
-  <si>
-    <t>72,35%</t>
-  </si>
-  <si>
-    <t>91,77%</t>
-  </si>
-  <si>
-    <t>75,12%</t>
-  </si>
-  <si>
-    <t>63,69%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>78,72%</t>
-  </si>
-  <si>
-    <t>70,91%</t>
-  </si>
-  <si>
-    <t>85,83%</t>
-  </si>
-  <si>
-    <t>21,87%</t>
-  </si>
-  <si>
-    <t>14,53%</t>
-  </si>
-  <si>
-    <t>31,63%</t>
-  </si>
-  <si>
-    <t>29,81%</t>
-  </si>
-  <si>
-    <t>21,69%</t>
-  </si>
-  <si>
-    <t>39,21%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>32,25%</t>
-  </si>
-  <si>
-    <t>78,13%</t>
-  </si>
-  <si>
-    <t>68,37%</t>
-  </si>
-  <si>
-    <t>85,47%</t>
-  </si>
-  <si>
-    <t>70,19%</t>
-  </si>
-  <si>
-    <t>60,79%</t>
-  </si>
-  <si>
-    <t>78,31%</t>
-  </si>
-  <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>67,75%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>18,6%</t>
-  </si>
-  <si>
-    <t>14,06%</t>
-  </si>
-  <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>26,59%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>31,4%</t>
-  </si>
-  <si>
-    <t>22,64%</t>
-  </si>
-  <si>
-    <t>19,59%</t>
-  </si>
-  <si>
-    <t>26,09%</t>
-  </si>
-  <si>
-    <t>81,4%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>85,94%</t>
-  </si>
-  <si>
-    <t>73,41%</t>
-  </si>
-  <si>
-    <t>68,6%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>77,36%</t>
-  </si>
-  <si>
-    <t>73,91%</t>
-  </si>
-  <si>
-    <t>80,41%</t>
+    <t>85,1%</t>
+  </si>
+  <si>
+    <t>69,41%</t>
+  </si>
+  <si>
+    <t>59,31%</t>
+  </si>
+  <si>
+    <t>77,29%</t>
+  </si>
+  <si>
+    <t>73,42%</t>
+  </si>
+  <si>
+    <t>67,14%</t>
+  </si>
+  <si>
+    <t>78,8%</t>
+  </si>
+  <si>
+    <t>18,98%</t>
+  </si>
+  <si>
+    <t>14,39%</t>
+  </si>
+  <si>
+    <t>23,34%</t>
+  </si>
+  <si>
+    <t>25,18%</t>
+  </si>
+  <si>
+    <t>18,32%</t>
+  </si>
+  <si>
+    <t>30,06%</t>
+  </si>
+  <si>
+    <t>22,15%</t>
+  </si>
+  <si>
+    <t>17,96%</t>
+  </si>
+  <si>
+    <t>25,58%</t>
+  </si>
+  <si>
+    <t>81,02%</t>
+  </si>
+  <si>
+    <t>76,66%</t>
+  </si>
+  <si>
+    <t>85,61%</t>
+  </si>
+  <si>
+    <t>74,82%</t>
+  </si>
+  <si>
+    <t>69,94%</t>
+  </si>
+  <si>
+    <t>81,68%</t>
+  </si>
+  <si>
+    <t>77,85%</t>
+  </si>
+  <si>
+    <t>74,42%</t>
+  </si>
+  <si>
+    <t>82,04%</t>
   </si>
 </sst>
 </file>
@@ -1734,8 +1548,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB37114C-0199-4C74-8146-3E6BAEF90AA0}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E781BC54-3DB4-4399-8945-9E09270CB028}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1852,10 +1666,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>950</v>
+        <v>12191</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1867,85 +1681,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>5659</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>950</v>
+        <v>17850</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>13</v>
+        <v>65</v>
       </c>
       <c r="D5" s="7">
-        <v>14121</v>
+        <v>67140</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="I5" s="7">
-        <v>6056</v>
+        <v>26582</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>20</v>
+        <v>93</v>
       </c>
       <c r="N5" s="7">
-        <v>20176</v>
+        <v>93722</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>21</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1954,153 +1768,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>14</v>
+        <v>76</v>
       </c>
       <c r="D6" s="7">
-        <v>15071</v>
+        <v>79331</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="I6" s="7">
-        <v>6056</v>
+        <v>32241</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>21</v>
+        <v>109</v>
       </c>
       <c r="N6" s="7">
-        <v>21126</v>
+        <v>111572</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D7" s="7">
-        <v>11241</v>
+        <v>32566</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="I7" s="7">
-        <v>5659</v>
+        <v>8451</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="N7" s="7">
-        <v>16900</v>
+        <v>41018</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>52</v>
+        <v>107</v>
       </c>
       <c r="D8" s="7">
-        <v>53020</v>
+        <v>113415</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="I8" s="7">
-        <v>20527</v>
+        <v>44346</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>73</v>
+        <v>149</v>
       </c>
       <c r="N8" s="7">
-        <v>73546</v>
+        <v>157759</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2109,153 +1923,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>62</v>
+        <v>136</v>
       </c>
       <c r="D9" s="7">
-        <v>64261</v>
+        <v>145981</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>26</v>
+        <v>50</v>
       </c>
       <c r="I9" s="7">
-        <v>26186</v>
+        <v>52797</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>88</v>
+        <v>186</v>
       </c>
       <c r="N9" s="7">
-        <v>90446</v>
+        <v>198777</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D10" s="7">
-        <v>32566</v>
+        <v>22274</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>8451</v>
+        <v>12819</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="N10" s="7">
-        <v>41018</v>
+        <v>35093</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>107</v>
+        <v>81</v>
       </c>
       <c r="D11" s="7">
-        <v>113415</v>
+        <v>87670</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>57</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="I11" s="7">
-        <v>44346</v>
+        <v>33714</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>58</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>149</v>
+        <v>115</v>
       </c>
       <c r="N11" s="7">
-        <v>157759</v>
+        <v>121384</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2264,153 +2078,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>136</v>
+        <v>100</v>
       </c>
       <c r="D12" s="7">
-        <v>145981</v>
+        <v>109944</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I12" s="7">
-        <v>52797</v>
+        <v>46533</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>186</v>
+        <v>147</v>
       </c>
       <c r="N12" s="7">
-        <v>198777</v>
+        <v>156477</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>19</v>
+        <v>39</v>
       </c>
       <c r="D13" s="7">
-        <v>22274</v>
+        <v>39655</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="I13" s="7">
-        <v>12819</v>
+        <v>20715</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>32</v>
+        <v>59</v>
       </c>
       <c r="N13" s="7">
-        <v>35093</v>
+        <v>60370</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>99</v>
+      </c>
+      <c r="D14" s="7">
+        <v>97394</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="D14" s="7">
-        <v>87670</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>76</v>
-      </c>
       <c r="H14" s="7">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="I14" s="7">
-        <v>33714</v>
+        <v>67836</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>115</v>
+        <v>164</v>
       </c>
       <c r="N14" s="7">
-        <v>121384</v>
+        <v>165230</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>82</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2419,153 +2233,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>100</v>
+        <v>138</v>
       </c>
       <c r="D15" s="7">
-        <v>109944</v>
+        <v>137049</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="I15" s="7">
-        <v>46533</v>
+        <v>88551</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>147</v>
+        <v>223</v>
       </c>
       <c r="N15" s="7">
-        <v>156477</v>
+        <v>225600</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="D16" s="7">
-        <v>39655</v>
+        <v>106686</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="H16" s="7">
-        <v>20</v>
+        <v>46</v>
       </c>
       <c r="I16" s="7">
-        <v>20715</v>
+        <v>47644</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="M16" s="7">
-        <v>59</v>
+        <v>144</v>
       </c>
       <c r="N16" s="7">
-        <v>60370</v>
+        <v>154330</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>352</v>
+      </c>
+      <c r="D17" s="7">
+        <v>365619</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="D17" s="7">
-        <v>97394</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>95</v>
-      </c>
       <c r="H17" s="7">
-        <v>65</v>
+        <v>169</v>
       </c>
       <c r="I17" s="7">
-        <v>67836</v>
+        <v>172477</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="M17" s="7">
-        <v>164</v>
+        <v>521</v>
       </c>
       <c r="N17" s="7">
-        <v>165230</v>
+        <v>538097</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2574,217 +2388,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>138</v>
+        <v>450</v>
       </c>
       <c r="D18" s="7">
-        <v>137049</v>
+        <v>472305</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>85</v>
+        <v>215</v>
       </c>
       <c r="I18" s="7">
-        <v>88551</v>
+        <v>220121</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>223</v>
+        <v>665</v>
       </c>
       <c r="N18" s="7">
-        <v>225600</v>
+        <v>692427</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>98</v>
-      </c>
-      <c r="D19" s="7">
-        <v>106686</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="H19" s="7">
-        <v>46</v>
-      </c>
-      <c r="I19" s="7">
-        <v>47644</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="K19" s="7" t="s">
+      <c r="A19" t="s">
         <v>106</v>
       </c>
-      <c r="L19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="M19" s="7">
-        <v>144</v>
-      </c>
-      <c r="N19" s="7">
-        <v>154330</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>352</v>
-      </c>
-      <c r="D20" s="7">
-        <v>365619</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="H20" s="7">
-        <v>169</v>
-      </c>
-      <c r="I20" s="7">
-        <v>172477</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="M20" s="7">
-        <v>521</v>
-      </c>
-      <c r="N20" s="7">
-        <v>538097</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>450</v>
-      </c>
-      <c r="D21" s="7">
-        <v>472305</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>215</v>
-      </c>
-      <c r="I21" s="7">
-        <v>220121</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>665</v>
-      </c>
-      <c r="N21" s="7">
-        <v>692427</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2797,8 +2455,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BA8E366-FCB1-49B2-9765-C1FA225449F6}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA2D834-118C-431F-B985-01ACC147E5AE}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2814,7 +2472,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2915,100 +2573,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D4" s="7">
-        <v>5214</v>
+        <v>14019</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>122</v>
+        <v>108</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="H4" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>1140</v>
+        <v>11326</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>125</v>
+        <v>111</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>112</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="M4" s="7">
-        <v>7</v>
+        <v>26</v>
       </c>
       <c r="N4" s="7">
-        <v>6354</v>
+        <v>25345</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="D5" s="7">
-        <v>16923</v>
+        <v>62561</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="H5" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>6214</v>
+        <v>22936</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>21</v>
+        <v>122</v>
       </c>
       <c r="M5" s="7">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="N5" s="7">
-        <v>23137</v>
+        <v>85497</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>135</v>
+        <v>123</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>137</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3017,153 +2675,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D6" s="7">
-        <v>22137</v>
+        <v>76580</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>6</v>
+        <v>31</v>
       </c>
       <c r="I6" s="7">
-        <v>7354</v>
+        <v>34262</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>108</v>
       </c>
       <c r="N6" s="7">
-        <v>29491</v>
+        <v>110842</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7">
-        <v>8805</v>
+        <v>22260</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>138</v>
+        <v>126</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>127</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>140</v>
+        <v>128</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I7" s="7">
-        <v>10186</v>
+        <v>21932</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>141</v>
+        <v>129</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>142</v>
+        <v>130</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>143</v>
+        <v>131</v>
       </c>
       <c r="M7" s="7">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="N7" s="7">
-        <v>18991</v>
+        <v>44192</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>145</v>
+        <v>133</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>146</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D8" s="7">
-        <v>45639</v>
+        <v>69546</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>147</v>
+        <v>135</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>148</v>
+        <v>136</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>149</v>
+        <v>137</v>
       </c>
       <c r="H8" s="7">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="I8" s="7">
-        <v>16721</v>
+        <v>41566</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>150</v>
+        <v>138</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>151</v>
+        <v>139</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>152</v>
+        <v>140</v>
       </c>
       <c r="M8" s="7">
-        <v>60</v>
+        <v>104</v>
       </c>
       <c r="N8" s="7">
-        <v>62360</v>
+        <v>111112</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>154</v>
+        <v>142</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>155</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3172,153 +2830,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>54</v>
+        <v>86</v>
       </c>
       <c r="D9" s="7">
-        <v>54444</v>
+        <v>91806</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>25</v>
+        <v>58</v>
       </c>
       <c r="I9" s="7">
-        <v>26907</v>
+        <v>63498</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>79</v>
+        <v>144</v>
       </c>
       <c r="N9" s="7">
-        <v>81351</v>
+        <v>155304</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>22260</v>
+        <v>28916</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>156</v>
+        <v>144</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>146</v>
       </c>
       <c r="H10" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="I10" s="7">
-        <v>21932</v>
+        <v>10953</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>148</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>149</v>
       </c>
       <c r="M10" s="7">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="N10" s="7">
-        <v>44192</v>
+        <v>39869</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>150</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>151</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>65</v>
+        <v>46</v>
       </c>
       <c r="D11" s="7">
-        <v>69546</v>
+        <v>50641</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>153</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>154</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>167</v>
+        <v>155</v>
       </c>
       <c r="H11" s="7">
         <v>39</v>
       </c>
       <c r="I11" s="7">
-        <v>41566</v>
+        <v>42026</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>168</v>
+        <v>156</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>169</v>
+        <v>157</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>170</v>
+        <v>158</v>
       </c>
       <c r="M11" s="7">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="N11" s="7">
-        <v>111112</v>
+        <v>92667</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>171</v>
+        <v>159</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>172</v>
+        <v>160</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>173</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3327,153 +2985,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="D12" s="7">
-        <v>91806</v>
+        <v>79557</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="I12" s="7">
-        <v>63498</v>
+        <v>52979</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>144</v>
+        <v>121</v>
       </c>
       <c r="N12" s="7">
-        <v>155304</v>
+        <v>132536</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="D13" s="7">
-        <v>28916</v>
+        <v>19524</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>174</v>
+        <v>162</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>175</v>
+        <v>163</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>176</v>
+        <v>164</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="I13" s="7">
-        <v>10953</v>
+        <v>19282</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>177</v>
+        <v>150</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>178</v>
+        <v>165</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>179</v>
+        <v>166</v>
       </c>
       <c r="M13" s="7">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="N13" s="7">
-        <v>39869</v>
+        <v>38806</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>180</v>
+        <v>167</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>181</v>
+        <v>168</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>182</v>
+        <v>169</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>46</v>
+        <v>59</v>
       </c>
       <c r="D14" s="7">
-        <v>50641</v>
+        <v>58757</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>183</v>
+        <v>170</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>184</v>
+        <v>171</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>185</v>
+        <v>172</v>
       </c>
       <c r="H14" s="7">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="I14" s="7">
-        <v>42026</v>
+        <v>44814</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>186</v>
+        <v>159</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>187</v>
+        <v>173</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>188</v>
+        <v>174</v>
       </c>
       <c r="M14" s="7">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="N14" s="7">
-        <v>92667</v>
+        <v>103572</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>189</v>
+        <v>175</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>190</v>
+        <v>176</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>191</v>
+        <v>177</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3482,153 +3140,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="D15" s="7">
-        <v>79557</v>
+        <v>78281</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="I15" s="7">
-        <v>52979</v>
+        <v>64096</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>121</v>
+        <v>137</v>
       </c>
       <c r="N15" s="7">
-        <v>132536</v>
+        <v>142378</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>19</v>
+        <v>81</v>
       </c>
       <c r="D16" s="7">
-        <v>19524</v>
+        <v>84720</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>192</v>
+        <v>178</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>193</v>
+        <v>179</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>194</v>
+        <v>180</v>
       </c>
       <c r="H16" s="7">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="I16" s="7">
-        <v>19282</v>
+        <v>63492</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>182</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>183</v>
       </c>
       <c r="M16" s="7">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="N16" s="7">
-        <v>38806</v>
+        <v>148212</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>184</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>59</v>
+        <v>232</v>
       </c>
       <c r="D17" s="7">
-        <v>58757</v>
+        <v>241505</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>187</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>188</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>189</v>
       </c>
       <c r="H17" s="7">
-        <v>40</v>
+        <v>138</v>
       </c>
       <c r="I17" s="7">
-        <v>44814</v>
+        <v>151343</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>203</v>
+        <v>191</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>204</v>
+        <v>192</v>
       </c>
       <c r="M17" s="7">
-        <v>99</v>
+        <v>370</v>
       </c>
       <c r="N17" s="7">
-        <v>103572</v>
+        <v>392848</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>206</v>
+        <v>194</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>207</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3637,217 +3295,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>78</v>
+        <v>313</v>
       </c>
       <c r="D18" s="7">
-        <v>78281</v>
+        <v>326225</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>59</v>
+        <v>197</v>
       </c>
       <c r="I18" s="7">
-        <v>64096</v>
+        <v>214835</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>137</v>
+        <v>510</v>
       </c>
       <c r="N18" s="7">
-        <v>142378</v>
+        <v>541060</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>81</v>
-      </c>
-      <c r="D19" s="7">
-        <v>84720</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="H19" s="7">
-        <v>59</v>
-      </c>
-      <c r="I19" s="7">
-        <v>63492</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M19" s="7">
-        <v>140</v>
-      </c>
-      <c r="N19" s="7">
-        <v>148212</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>232</v>
-      </c>
-      <c r="D20" s="7">
-        <v>241505</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H20" s="7">
-        <v>138</v>
-      </c>
-      <c r="I20" s="7">
-        <v>151343</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M20" s="7">
-        <v>370</v>
-      </c>
-      <c r="N20" s="7">
-        <v>392848</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>313</v>
-      </c>
-      <c r="D21" s="7">
-        <v>326225</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>197</v>
-      </c>
-      <c r="I21" s="7">
-        <v>214835</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>510</v>
-      </c>
-      <c r="N21" s="7">
-        <v>541060</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3860,8 +3362,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7300EE8-085F-4352-874D-C8342D106981}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8810A4B-7452-4F68-86B0-4EE5CCFFA0B0}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3877,7 +3379,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>224</v>
+        <v>196</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3978,100 +3480,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>1926</v>
+        <v>12721</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>225</v>
+        <v>197</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>198</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>226</v>
+        <v>199</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="I4" s="7">
-        <v>2807</v>
+        <v>8910</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>227</v>
+        <v>200</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>228</v>
+        <v>201</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>229</v>
+        <v>202</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="N4" s="7">
-        <v>4733</v>
+        <v>21631</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>230</v>
+        <v>203</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>231</v>
+        <v>204</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>6</v>
+        <v>39</v>
       </c>
       <c r="D5" s="7">
-        <v>6123</v>
+        <v>41952</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>233</v>
+        <v>206</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>234</v>
+        <v>207</v>
       </c>
       <c r="G5" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="H5" s="7">
         <v>21</v>
       </c>
-      <c r="H5" s="7">
-        <v>4</v>
-      </c>
       <c r="I5" s="7">
-        <v>3323</v>
+        <v>21005</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>235</v>
+        <v>209</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>236</v>
+        <v>210</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>237</v>
+        <v>211</v>
       </c>
       <c r="M5" s="7">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="N5" s="7">
-        <v>9446</v>
+        <v>62957</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>238</v>
+        <v>212</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>239</v>
+        <v>213</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>240</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4080,153 +3582,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>8</v>
+        <v>50</v>
       </c>
       <c r="D6" s="7">
-        <v>8049</v>
+        <v>54673</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="I6" s="7">
-        <v>6130</v>
+        <v>29915</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>15</v>
+        <v>80</v>
       </c>
       <c r="N6" s="7">
-        <v>14179</v>
+        <v>84588</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D7" s="7">
-        <v>10795</v>
+        <v>16715</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>241</v>
+        <v>215</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>242</v>
+        <v>18</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>243</v>
+        <v>216</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>18</v>
       </c>
       <c r="I7" s="7">
-        <v>6103</v>
+        <v>19148</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>244</v>
+        <v>217</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>245</v>
+        <v>218</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>246</v>
+        <v>219</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="N7" s="7">
-        <v>16899</v>
+        <v>35863</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>247</v>
+        <v>220</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>248</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>249</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>33</v>
+        <v>73</v>
       </c>
       <c r="D8" s="7">
-        <v>35829</v>
+        <v>80269</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>251</v>
+        <v>224</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>252</v>
+        <v>29</v>
       </c>
       <c r="H8" s="7">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="I8" s="7">
-        <v>17682</v>
+        <v>36404</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>253</v>
+        <v>225</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>254</v>
+        <v>226</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>255</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="N8" s="7">
-        <v>53510</v>
+        <v>116672</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>256</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>257</v>
+        <v>229</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>258</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4235,153 +3737,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>42</v>
+        <v>85</v>
       </c>
       <c r="D9" s="7">
-        <v>46624</v>
+        <v>96984</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>23</v>
+        <v>52</v>
       </c>
       <c r="I9" s="7">
-        <v>23785</v>
+        <v>55552</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="N9" s="7">
-        <v>70409</v>
+        <v>152535</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>12</v>
+        <v>26</v>
       </c>
       <c r="D10" s="7">
-        <v>16715</v>
+        <v>28548</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>259</v>
+        <v>178</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>260</v>
+        <v>231</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>261</v>
+        <v>232</v>
       </c>
       <c r="H10" s="7">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="I10" s="7">
-        <v>19148</v>
+        <v>17558</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>262</v>
+        <v>233</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>263</v>
+        <v>234</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="M10" s="7">
-        <v>30</v>
+        <v>43</v>
       </c>
       <c r="N10" s="7">
-        <v>35863</v>
+        <v>46106</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>265</v>
+        <v>236</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>266</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>267</v>
+        <v>237</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="D11" s="7">
-        <v>80269</v>
+        <v>81387</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>268</v>
+        <v>187</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>269</v>
+        <v>238</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>270</v>
+        <v>239</v>
       </c>
       <c r="H11" s="7">
-        <v>34</v>
+        <v>47</v>
       </c>
       <c r="I11" s="7">
-        <v>36404</v>
+        <v>47189</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>271</v>
+        <v>240</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>272</v>
+        <v>241</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>273</v>
+        <v>242</v>
       </c>
       <c r="M11" s="7">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="N11" s="7">
-        <v>116672</v>
+        <v>128576</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>274</v>
+        <v>243</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>276</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4390,153 +3892,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="D12" s="7">
-        <v>96984</v>
+        <v>109935</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="I12" s="7">
-        <v>55552</v>
+        <v>64747</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>137</v>
+        <v>167</v>
       </c>
       <c r="N12" s="7">
-        <v>152535</v>
+        <v>174682</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D13" s="7">
-        <v>28548</v>
+        <v>25652</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>208</v>
+        <v>245</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>277</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>278</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="I13" s="7">
-        <v>17558</v>
+        <v>24985</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>279</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>138</v>
+        <v>249</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>280</v>
+        <v>250</v>
       </c>
       <c r="M13" s="7">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="N13" s="7">
-        <v>46106</v>
+        <v>50637</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>281</v>
+        <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>177</v>
+        <v>252</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>77</v>
+        <v>61</v>
       </c>
       <c r="D14" s="7">
-        <v>81387</v>
+        <v>62758</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>216</v>
+        <v>254</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>283</v>
+        <v>255</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>284</v>
+        <v>256</v>
       </c>
       <c r="H14" s="7">
-        <v>47</v>
+        <v>38</v>
       </c>
       <c r="I14" s="7">
-        <v>47189</v>
+        <v>41098</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>257</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>286</v>
+        <v>258</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>147</v>
+        <v>259</v>
       </c>
       <c r="M14" s="7">
-        <v>124</v>
+        <v>99</v>
       </c>
       <c r="N14" s="7">
-        <v>128576</v>
+        <v>103856</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>287</v>
+        <v>260</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>288</v>
+        <v>261</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>262</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4545,153 +4047,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="D15" s="7">
-        <v>109935</v>
+        <v>88410</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="I15" s="7">
-        <v>64747</v>
+        <v>66083</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>167</v>
+        <v>145</v>
       </c>
       <c r="N15" s="7">
-        <v>174682</v>
+        <v>154493</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>23</v>
+        <v>72</v>
       </c>
       <c r="D16" s="7">
-        <v>25652</v>
+        <v>83635</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>289</v>
+        <v>263</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>142</v>
+        <v>264</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="H16" s="7">
-        <v>23</v>
+        <v>67</v>
       </c>
       <c r="I16" s="7">
-        <v>24985</v>
+        <v>70601</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>75</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>266</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>267</v>
       </c>
       <c r="M16" s="7">
-        <v>46</v>
+        <v>139</v>
       </c>
       <c r="N16" s="7">
-        <v>50637</v>
+        <v>154237</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>269</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>296</v>
+        <v>270</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="D17" s="7">
-        <v>62758</v>
+        <v>266366</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>297</v>
+        <v>271</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>298</v>
+        <v>272</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>152</v>
+        <v>273</v>
       </c>
       <c r="H17" s="7">
-        <v>38</v>
+        <v>140</v>
       </c>
       <c r="I17" s="7">
-        <v>41098</v>
+        <v>145697</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>299</v>
+        <v>83</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>274</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>275</v>
       </c>
       <c r="M17" s="7">
-        <v>99</v>
+        <v>390</v>
       </c>
       <c r="N17" s="7">
-        <v>103856</v>
+        <v>412062</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>276</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>303</v>
+        <v>277</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>304</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4700,217 +4202,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>84</v>
+        <v>322</v>
       </c>
       <c r="D18" s="7">
-        <v>88410</v>
+        <v>350001</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="I18" s="7">
-        <v>66083</v>
+        <v>216298</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>145</v>
+        <v>529</v>
       </c>
       <c r="N18" s="7">
-        <v>154493</v>
+        <v>566299</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>72</v>
-      </c>
-      <c r="D19" s="7">
-        <v>83635</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="H19" s="7">
-        <v>67</v>
-      </c>
-      <c r="I19" s="7">
-        <v>70601</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="M19" s="7">
-        <v>139</v>
-      </c>
-      <c r="N19" s="7">
-        <v>154237</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>311</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>250</v>
-      </c>
-      <c r="D20" s="7">
-        <v>266366</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="H20" s="7">
-        <v>140</v>
-      </c>
-      <c r="I20" s="7">
-        <v>145697</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M20" s="7">
-        <v>390</v>
-      </c>
-      <c r="N20" s="7">
-        <v>412062</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>322</v>
-      </c>
-      <c r="D21" s="7">
-        <v>350001</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>207</v>
-      </c>
-      <c r="I21" s="7">
-        <v>216298</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>529</v>
-      </c>
-      <c r="N21" s="7">
-        <v>566299</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4923,8 +4269,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7225C67D-D6D6-40ED-90B3-1F9CEC800CA9}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE09BB10-0C29-4752-BABB-FBECE62AAB98}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4940,7 +4286,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>321</v>
+        <v>279</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5041,100 +4387,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>835</v>
+        <v>13436</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>322</v>
+        <v>280</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>281</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>282</v>
       </c>
       <c r="H4" s="7">
-        <v>4</v>
+        <v>23</v>
       </c>
       <c r="I4" s="7">
-        <v>2140</v>
+        <v>12830</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>283</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>284</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>285</v>
       </c>
       <c r="M4" s="7">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="N4" s="7">
-        <v>2974</v>
+        <v>26266</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>286</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>287</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>288</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="D5" s="7">
-        <v>13378</v>
+        <v>57779</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>289</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>290</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>21</v>
+        <v>291</v>
       </c>
       <c r="H5" s="7">
-        <v>13</v>
+        <v>67</v>
       </c>
       <c r="I5" s="7">
-        <v>9151</v>
+        <v>41851</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>332</v>
+        <v>292</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>333</v>
+        <v>293</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>334</v>
+        <v>294</v>
       </c>
       <c r="M5" s="7">
-        <v>24</v>
+        <v>125</v>
       </c>
       <c r="N5" s="7">
-        <v>22529</v>
+        <v>99631</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>335</v>
+        <v>295</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>336</v>
+        <v>296</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>337</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5143,153 +4489,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>12</v>
+        <v>68</v>
       </c>
       <c r="D6" s="7">
-        <v>14213</v>
+        <v>71215</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>17</v>
+        <v>90</v>
       </c>
       <c r="I6" s="7">
-        <v>11291</v>
+        <v>54681</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>29</v>
+        <v>158</v>
       </c>
       <c r="N6" s="7">
-        <v>25503</v>
+        <v>125897</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7">
-        <v>13366</v>
+        <v>19053</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>338</v>
+        <v>298</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>339</v>
+        <v>299</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>38</v>
       </c>
       <c r="I7" s="7">
-        <v>11308</v>
+        <v>26367</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>341</v>
+        <v>301</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>342</v>
+        <v>302</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>303</v>
       </c>
       <c r="M7" s="7">
-        <v>28</v>
+        <v>57</v>
       </c>
       <c r="N7" s="7">
-        <v>24674</v>
+        <v>45419</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>304</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>221</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>305</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="D8" s="7">
-        <v>46946</v>
+        <v>92930</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>306</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>307</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="H8" s="7">
-        <v>54</v>
+        <v>108</v>
       </c>
       <c r="I8" s="7">
-        <v>36686</v>
+        <v>72363</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>309</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>352</v>
+        <v>311</v>
       </c>
       <c r="M8" s="7">
-        <v>101</v>
+        <v>200</v>
       </c>
       <c r="N8" s="7">
-        <v>83632</v>
+        <v>165293</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>353</v>
+        <v>312</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>354</v>
+        <v>313</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>355</v>
+        <v>230</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5298,153 +4644,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>56</v>
+        <v>111</v>
       </c>
       <c r="D9" s="7">
-        <v>60312</v>
+        <v>111983</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>73</v>
+        <v>146</v>
       </c>
       <c r="I9" s="7">
-        <v>47994</v>
+        <v>98730</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>129</v>
+        <v>257</v>
       </c>
       <c r="N9" s="7">
-        <v>108306</v>
+        <v>210712</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>19227</v>
+        <v>9273</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>356</v>
+        <v>314</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>357</v>
+        <v>315</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>358</v>
+        <v>316</v>
       </c>
       <c r="H10" s="7">
-        <v>38</v>
+        <v>24</v>
       </c>
       <c r="I10" s="7">
-        <v>29089</v>
+        <v>18226</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>359</v>
+        <v>317</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>360</v>
+        <v>318</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>361</v>
+        <v>111</v>
       </c>
       <c r="M10" s="7">
-        <v>57</v>
+        <v>34</v>
       </c>
       <c r="N10" s="7">
-        <v>48316</v>
+        <v>27498</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>362</v>
+        <v>319</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>363</v>
+        <v>320</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>364</v>
+        <v>321</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>92</v>
+        <v>48</v>
       </c>
       <c r="D11" s="7">
-        <v>97223</v>
+        <v>46004</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>365</v>
+        <v>322</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>366</v>
+        <v>323</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>367</v>
+        <v>324</v>
       </c>
       <c r="H11" s="7">
-        <v>108</v>
+        <v>64</v>
       </c>
       <c r="I11" s="7">
-        <v>80143</v>
+        <v>78682</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>368</v>
+        <v>325</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>369</v>
+        <v>120</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>370</v>
+        <v>326</v>
       </c>
       <c r="M11" s="7">
-        <v>200</v>
+        <v>112</v>
       </c>
       <c r="N11" s="7">
-        <v>177366</v>
+        <v>124686</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>371</v>
+        <v>327</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>372</v>
+        <v>328</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>373</v>
+        <v>329</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5453,153 +4799,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>111</v>
+        <v>58</v>
       </c>
       <c r="D12" s="7">
-        <v>116450</v>
+        <v>55277</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
+        <v>88</v>
+      </c>
+      <c r="I12" s="7">
+        <v>96908</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M12" s="7">
         <v>146</v>
       </c>
-      <c r="I12" s="7">
-        <v>109232</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M12" s="7">
-        <v>257</v>
-      </c>
       <c r="N12" s="7">
-        <v>225682</v>
+        <v>152184</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>64</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>22</v>
       </c>
       <c r="D13" s="7">
-        <v>9479</v>
+        <v>22680</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>374</v>
+        <v>330</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>375</v>
+        <v>331</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>376</v>
+        <v>332</v>
       </c>
       <c r="H13" s="7">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="I13" s="7">
-        <v>19853</v>
+        <v>31784</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>377</v>
+        <v>333</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="M13" s="7">
-        <v>34</v>
+        <v>70</v>
       </c>
       <c r="N13" s="7">
-        <v>29332</v>
+        <v>54464</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>382</v>
+        <v>338</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>48</v>
+        <v>79</v>
       </c>
       <c r="D14" s="7">
-        <v>48558</v>
+        <v>78350</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>383</v>
+        <v>339</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>384</v>
+        <v>340</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>385</v>
+        <v>341</v>
       </c>
       <c r="H14" s="7">
-        <v>64</v>
+        <v>102</v>
       </c>
       <c r="I14" s="7">
-        <v>59925</v>
+        <v>72112</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>386</v>
+        <v>342</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>387</v>
+        <v>343</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>388</v>
+        <v>344</v>
       </c>
       <c r="M14" s="7">
-        <v>112</v>
+        <v>181</v>
       </c>
       <c r="N14" s="7">
-        <v>108484</v>
+        <v>150462</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>389</v>
+        <v>345</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>390</v>
+        <v>346</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>391</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5608,153 +4954,153 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>58</v>
+        <v>101</v>
       </c>
       <c r="D15" s="7">
-        <v>58037</v>
+        <v>101030</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>88</v>
+        <v>150</v>
       </c>
       <c r="I15" s="7">
-        <v>79778</v>
+        <v>103896</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>146</v>
+        <v>251</v>
       </c>
       <c r="N15" s="7">
-        <v>137816</v>
+        <v>204926</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>83</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>22</v>
+        <v>61</v>
       </c>
       <c r="D16" s="7">
-        <v>22742</v>
+        <v>64442</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>393</v>
+        <v>349</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>394</v>
+        <v>350</v>
       </c>
       <c r="H16" s="7">
-        <v>48</v>
+        <v>133</v>
       </c>
       <c r="I16" s="7">
-        <v>33661</v>
+        <v>89206</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>395</v>
+        <v>351</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>396</v>
+        <v>352</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>397</v>
+        <v>353</v>
       </c>
       <c r="M16" s="7">
-        <v>70</v>
+        <v>194</v>
       </c>
       <c r="N16" s="7">
-        <v>56403</v>
+        <v>153648</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>398</v>
+        <v>354</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>399</v>
+        <v>355</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>400</v>
+        <v>356</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>79</v>
+        <v>277</v>
       </c>
       <c r="D17" s="7">
-        <v>81264</v>
+        <v>275063</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>401</v>
+        <v>357</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="H17" s="7">
-        <v>102</v>
+        <v>341</v>
       </c>
       <c r="I17" s="7">
-        <v>79255</v>
+        <v>265009</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>404</v>
+        <v>360</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>405</v>
+        <v>361</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>406</v>
+        <v>362</v>
       </c>
       <c r="M17" s="7">
-        <v>181</v>
+        <v>618</v>
       </c>
       <c r="N17" s="7">
-        <v>160518</v>
+        <v>540072</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>407</v>
+        <v>363</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>408</v>
+        <v>364</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>409</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5763,217 +5109,61 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>101</v>
+        <v>338</v>
       </c>
       <c r="D18" s="7">
-        <v>104006</v>
+        <v>339505</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>150</v>
+        <v>474</v>
       </c>
       <c r="I18" s="7">
-        <v>112916</v>
+        <v>354215</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>251</v>
+        <v>812</v>
       </c>
       <c r="N18" s="7">
-        <v>216921</v>
+        <v>693720</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>61</v>
-      </c>
-      <c r="D19" s="7">
-        <v>65648</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>412</v>
-      </c>
-      <c r="H19" s="7">
-        <v>133</v>
-      </c>
-      <c r="I19" s="7">
-        <v>96051</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>413</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>414</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>415</v>
-      </c>
-      <c r="M19" s="7">
-        <v>194</v>
-      </c>
-      <c r="N19" s="7">
-        <v>161699</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>416</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>417</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C20" s="7">
-        <v>277</v>
-      </c>
-      <c r="D20" s="7">
-        <v>287370</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>419</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>420</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>421</v>
-      </c>
-      <c r="H20" s="7">
-        <v>341</v>
-      </c>
-      <c r="I20" s="7">
-        <v>265160</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>422</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>423</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>424</v>
-      </c>
-      <c r="M20" s="7">
-        <v>618</v>
-      </c>
-      <c r="N20" s="7">
-        <v>552529</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>425</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>426</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>427</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>338</v>
-      </c>
-      <c r="D21" s="7">
-        <v>353018</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="7">
-        <v>474</v>
-      </c>
-      <c r="I21" s="7">
-        <v>361211</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="7">
-        <v>812</v>
-      </c>
-      <c r="N21" s="7">
-        <v>714228</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>120</v>
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
